--- a/Results/Categorization/chunk.xlsx
+++ b/Results/Categorization/chunk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1265">
   <si>
     <t>id</t>
   </si>
@@ -1933,412 +1933,421 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>VALUE|FOOD|VALUE|VALUE</t>
+    <t>AMBIENCE|AMBIENCE|VALUE|VALUE</t>
   </si>
   <si>
     <t>VALUE|VALUE|FOOD</t>
   </si>
   <si>
-    <t>VALUE|VALUE|FOOD|VALUE</t>
+    <t>VALUE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>VALUE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|VALUE|SERVICE|VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|VALUE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|VALUE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|VALUE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>VALUE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|SERVICE|VALUE|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|AMBIENCE|VALUE|AMBIENCE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|VALUE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|VALUE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|VALUE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>VALUE|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|VALUE|AMBIENCE|AMBIENCE|SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|VALUE|AMBIENCE|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|VALUE</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|VALUE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|VALUE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
     <t>SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|VALUE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|FOOD|FOOD|FOOD|FOOD|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|SERVICE|VALUE|VALUE|SERVICE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|VALUE|VALUE|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|VALUE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|VALUE|AMBIENCE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|VALUE|VALUE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE|VALUE|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|FOOD|FOOD|VALUE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|VALUE|FOOD|VALUE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|VALUE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|AMBIENCE|AMBIENCE|FOOD|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|VALUE|AMBIENCE</t>
   </si>
   <si>
     <t>place|fun|time|prices</t>
@@ -4197,7 +4206,7 @@
         <v>639</v>
       </c>
       <c r="F2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4217,7 +4226,7 @@
         <v>640</v>
       </c>
       <c r="F3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4237,7 +4246,7 @@
         <v>640</v>
       </c>
       <c r="F4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4257,7 +4266,7 @@
         <v>640</v>
       </c>
       <c r="F5" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4277,7 +4286,7 @@
         <v>640</v>
       </c>
       <c r="F6" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4297,7 +4306,7 @@
         <v>640</v>
       </c>
       <c r="F7" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4317,7 +4326,7 @@
         <v>640</v>
       </c>
       <c r="F8" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4337,7 +4346,7 @@
         <v>640</v>
       </c>
       <c r="F9" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4357,7 +4366,7 @@
         <v>640</v>
       </c>
       <c r="F10" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4377,7 +4386,7 @@
         <v>640</v>
       </c>
       <c r="F11" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4397,7 +4406,7 @@
         <v>640</v>
       </c>
       <c r="F12" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4417,7 +4426,7 @@
         <v>640</v>
       </c>
       <c r="F13" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4437,7 +4446,7 @@
         <v>640</v>
       </c>
       <c r="F14" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4457,7 +4466,7 @@
         <v>640</v>
       </c>
       <c r="F15" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4477,7 +4486,7 @@
         <v>640</v>
       </c>
       <c r="F16" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4497,7 +4506,7 @@
         <v>640</v>
       </c>
       <c r="F17" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4517,7 +4526,7 @@
         <v>640</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4537,7 +4546,7 @@
         <v>585</v>
       </c>
       <c r="F19" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4557,7 +4566,7 @@
         <v>585</v>
       </c>
       <c r="F20" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4577,7 +4586,7 @@
         <v>585</v>
       </c>
       <c r="F21" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4597,7 +4606,7 @@
         <v>585</v>
       </c>
       <c r="F22" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4617,7 +4626,7 @@
         <v>585</v>
       </c>
       <c r="F23" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4637,7 +4646,7 @@
         <v>585</v>
       </c>
       <c r="F24" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4657,7 +4666,7 @@
         <v>585</v>
       </c>
       <c r="F25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4677,7 +4686,7 @@
         <v>585</v>
       </c>
       <c r="F26" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4697,7 +4706,7 @@
         <v>585</v>
       </c>
       <c r="F27" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4717,7 +4726,7 @@
         <v>585</v>
       </c>
       <c r="F28" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4737,7 +4746,7 @@
         <v>585</v>
       </c>
       <c r="F29" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4757,7 +4766,7 @@
         <v>585</v>
       </c>
       <c r="F30" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4777,7 +4786,7 @@
         <v>585</v>
       </c>
       <c r="F31" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4797,7 +4806,7 @@
         <v>585</v>
       </c>
       <c r="F32" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4817,7 +4826,7 @@
         <v>585</v>
       </c>
       <c r="F33" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4837,7 +4846,7 @@
         <v>641</v>
       </c>
       <c r="F34" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4857,7 +4866,7 @@
         <v>592</v>
       </c>
       <c r="F35" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4874,10 +4883,10 @@
         <v>587</v>
       </c>
       <c r="E36" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F36" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4897,7 +4906,7 @@
         <v>585</v>
       </c>
       <c r="F37" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4917,7 +4926,7 @@
         <v>589</v>
       </c>
       <c r="F38" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4934,10 +4943,10 @@
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F39" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4957,7 +4966,7 @@
         <v>585</v>
       </c>
       <c r="F40" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4977,7 +4986,7 @@
         <v>589</v>
       </c>
       <c r="F41" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4994,10 +5003,10 @@
         <v>587</v>
       </c>
       <c r="E42" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F42" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5017,7 +5026,7 @@
         <v>585</v>
       </c>
       <c r="F43" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5037,7 +5046,7 @@
         <v>589</v>
       </c>
       <c r="F44" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5054,10 +5063,10 @@
         <v>587</v>
       </c>
       <c r="E45" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F45" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5077,7 +5086,7 @@
         <v>585</v>
       </c>
       <c r="F46" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5097,7 +5106,7 @@
         <v>589</v>
       </c>
       <c r="F47" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5114,10 +5123,10 @@
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F48" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5137,7 +5146,7 @@
         <v>585</v>
       </c>
       <c r="F49" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5157,7 +5166,7 @@
         <v>589</v>
       </c>
       <c r="F50" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5174,10 +5183,10 @@
         <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F51" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5197,7 +5206,7 @@
         <v>585</v>
       </c>
       <c r="F52" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5217,7 +5226,7 @@
         <v>589</v>
       </c>
       <c r="F53" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5234,10 +5243,10 @@
         <v>587</v>
       </c>
       <c r="E54" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F54" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5257,7 +5266,7 @@
         <v>585</v>
       </c>
       <c r="F55" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5277,7 +5286,7 @@
         <v>589</v>
       </c>
       <c r="F56" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5294,10 +5303,10 @@
         <v>587</v>
       </c>
       <c r="E57" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F57" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5317,7 +5326,7 @@
         <v>585</v>
       </c>
       <c r="F58" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5337,7 +5346,7 @@
         <v>589</v>
       </c>
       <c r="F59" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5354,10 +5363,10 @@
         <v>587</v>
       </c>
       <c r="E60" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F60" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5377,7 +5386,7 @@
         <v>585</v>
       </c>
       <c r="F61" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5397,7 +5406,7 @@
         <v>589</v>
       </c>
       <c r="F62" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5414,10 +5423,10 @@
         <v>587</v>
       </c>
       <c r="E63" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F63" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5437,7 +5446,7 @@
         <v>585</v>
       </c>
       <c r="F64" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5457,7 +5466,7 @@
         <v>589</v>
       </c>
       <c r="F65" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5474,10 +5483,10 @@
         <v>587</v>
       </c>
       <c r="E66" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F66" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5497,7 +5506,7 @@
         <v>585</v>
       </c>
       <c r="F67" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5517,7 +5526,7 @@
         <v>589</v>
       </c>
       <c r="F68" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5534,10 +5543,10 @@
         <v>587</v>
       </c>
       <c r="E69" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F69" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5557,7 +5566,7 @@
         <v>585</v>
       </c>
       <c r="F70" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5577,7 +5586,7 @@
         <v>589</v>
       </c>
       <c r="F71" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5594,10 +5603,10 @@
         <v>587</v>
       </c>
       <c r="E72" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F72" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5617,7 +5626,7 @@
         <v>585</v>
       </c>
       <c r="F73" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5637,7 +5646,7 @@
         <v>589</v>
       </c>
       <c r="F74" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5654,10 +5663,10 @@
         <v>587</v>
       </c>
       <c r="E75" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F75" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5677,7 +5686,7 @@
         <v>585</v>
       </c>
       <c r="F76" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5697,7 +5706,7 @@
         <v>589</v>
       </c>
       <c r="F77" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5714,10 +5723,10 @@
         <v>587</v>
       </c>
       <c r="E78" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F78" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5737,7 +5746,7 @@
         <v>585</v>
       </c>
       <c r="F79" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5757,7 +5766,7 @@
         <v>589</v>
       </c>
       <c r="F80" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5774,10 +5783,10 @@
         <v>587</v>
       </c>
       <c r="E81" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F81" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5797,7 +5806,7 @@
         <v>585</v>
       </c>
       <c r="F82" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5817,7 +5826,7 @@
         <v>589</v>
       </c>
       <c r="F83" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5834,10 +5843,10 @@
         <v>587</v>
       </c>
       <c r="E84" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F84" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5857,7 +5866,7 @@
         <v>585</v>
       </c>
       <c r="F85" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5877,7 +5886,7 @@
         <v>589</v>
       </c>
       <c r="F86" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5894,10 +5903,10 @@
         <v>587</v>
       </c>
       <c r="E87" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F87" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5917,7 +5926,7 @@
         <v>585</v>
       </c>
       <c r="F88" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5937,7 +5946,7 @@
         <v>589</v>
       </c>
       <c r="F89" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5954,10 +5963,10 @@
         <v>587</v>
       </c>
       <c r="E90" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F90" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5977,7 +5986,7 @@
         <v>585</v>
       </c>
       <c r="F91" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5997,7 +6006,7 @@
         <v>589</v>
       </c>
       <c r="F92" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6014,10 +6023,10 @@
         <v>587</v>
       </c>
       <c r="E93" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F93" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6037,7 +6046,7 @@
         <v>585</v>
       </c>
       <c r="F94" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6057,7 +6066,7 @@
         <v>589</v>
       </c>
       <c r="F95" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6074,10 +6083,10 @@
         <v>587</v>
       </c>
       <c r="E96" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F96" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6097,7 +6106,7 @@
         <v>585</v>
       </c>
       <c r="F97" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6117,7 +6126,7 @@
         <v>589</v>
       </c>
       <c r="F98" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6134,10 +6143,10 @@
         <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F99" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6157,7 +6166,7 @@
         <v>585</v>
       </c>
       <c r="F100" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6177,7 +6186,7 @@
         <v>589</v>
       </c>
       <c r="F101" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6194,10 +6203,10 @@
         <v>587</v>
       </c>
       <c r="E102" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F102" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6217,7 +6226,7 @@
         <v>585</v>
       </c>
       <c r="F103" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6237,7 +6246,7 @@
         <v>589</v>
       </c>
       <c r="F104" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6254,10 +6263,10 @@
         <v>587</v>
       </c>
       <c r="E105" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F105" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6277,7 +6286,7 @@
         <v>585</v>
       </c>
       <c r="F106" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6297,7 +6306,7 @@
         <v>589</v>
       </c>
       <c r="F107" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6314,10 +6323,10 @@
         <v>587</v>
       </c>
       <c r="E108" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F108" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6337,7 +6346,7 @@
         <v>585</v>
       </c>
       <c r="F109" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6357,7 +6366,7 @@
         <v>589</v>
       </c>
       <c r="F110" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6374,10 +6383,10 @@
         <v>587</v>
       </c>
       <c r="E111" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F111" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6397,7 +6406,7 @@
         <v>585</v>
       </c>
       <c r="F112" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6417,7 +6426,7 @@
         <v>589</v>
       </c>
       <c r="F113" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6434,10 +6443,10 @@
         <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="F114" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6457,7 +6466,7 @@
         <v>585</v>
       </c>
       <c r="F115" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6477,7 +6486,7 @@
         <v>589</v>
       </c>
       <c r="F116" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6497,7 +6506,7 @@
         <v>585</v>
       </c>
       <c r="F117" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6517,7 +6526,7 @@
         <v>585</v>
       </c>
       <c r="F118" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6534,10 +6543,10 @@
         <v>590</v>
       </c>
       <c r="E119" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F119" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6557,7 +6566,7 @@
         <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6574,10 +6583,10 @@
         <v>592</v>
       </c>
       <c r="E121" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F121" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6594,10 +6603,10 @@
         <v>593</v>
       </c>
       <c r="E122" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="F122" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6614,10 +6623,10 @@
         <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F123" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6637,7 +6646,7 @@
         <v>584</v>
       </c>
       <c r="F124" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6657,7 +6666,7 @@
         <v>584</v>
       </c>
       <c r="F125" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6677,7 +6686,7 @@
         <v>584</v>
       </c>
       <c r="F126" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6697,7 +6706,7 @@
         <v>584</v>
       </c>
       <c r="F127" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6717,7 +6726,7 @@
         <v>584</v>
       </c>
       <c r="F128" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6737,7 +6746,7 @@
         <v>584</v>
       </c>
       <c r="F129" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6757,7 +6766,7 @@
         <v>584</v>
       </c>
       <c r="F130" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6777,7 +6786,7 @@
         <v>584</v>
       </c>
       <c r="F131" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6797,7 +6806,7 @@
         <v>584</v>
       </c>
       <c r="F132" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6817,7 +6826,7 @@
         <v>584</v>
       </c>
       <c r="F133" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6837,7 +6846,7 @@
         <v>584</v>
       </c>
       <c r="F134" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6857,7 +6866,7 @@
         <v>584</v>
       </c>
       <c r="F135" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6877,7 +6886,7 @@
         <v>584</v>
       </c>
       <c r="F136" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6897,7 +6906,7 @@
         <v>643</v>
       </c>
       <c r="F137" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6917,7 +6926,7 @@
         <v>644</v>
       </c>
       <c r="F138" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6937,7 +6946,7 @@
         <v>596</v>
       </c>
       <c r="F139" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6957,7 +6966,7 @@
         <v>605</v>
       </c>
       <c r="F140" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6977,7 +6986,7 @@
         <v>645</v>
       </c>
       <c r="F141" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6997,7 +7006,7 @@
         <v>646</v>
       </c>
       <c r="F142" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7017,7 +7026,7 @@
         <v>603</v>
       </c>
       <c r="F143" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7037,7 +7046,7 @@
         <v>647</v>
       </c>
       <c r="F144" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7054,10 +7063,10 @@
         <v>597</v>
       </c>
       <c r="E145" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F145" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7074,10 +7083,10 @@
         <v>596</v>
       </c>
       <c r="E146" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="F146" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7097,7 +7106,7 @@
         <v>631</v>
       </c>
       <c r="F147" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7117,7 +7126,7 @@
         <v>604</v>
       </c>
       <c r="F148" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7134,10 +7143,10 @@
         <v>600</v>
       </c>
       <c r="E149" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F149" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7154,10 +7163,10 @@
         <v>596</v>
       </c>
       <c r="E150" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F150" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7177,7 +7186,7 @@
         <v>594</v>
       </c>
       <c r="F151" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7197,7 +7206,7 @@
         <v>597</v>
       </c>
       <c r="F152" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7217,7 +7226,7 @@
         <v>595</v>
       </c>
       <c r="F153" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7234,10 +7243,10 @@
         <v>589</v>
       </c>
       <c r="E154" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7254,10 +7263,10 @@
         <v>595</v>
       </c>
       <c r="E155" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F155" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7274,10 +7283,10 @@
         <v>595</v>
       </c>
       <c r="E156" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F156" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7297,7 +7306,7 @@
         <v>597</v>
       </c>
       <c r="F157" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7317,7 +7326,7 @@
         <v>618</v>
       </c>
       <c r="F158" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7334,10 +7343,10 @@
         <v>597</v>
       </c>
       <c r="E159" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="F159" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7357,7 +7366,7 @@
         <v>597</v>
       </c>
       <c r="F160" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7377,7 +7386,7 @@
         <v>604</v>
       </c>
       <c r="F161" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7394,10 +7403,10 @@
         <v>597</v>
       </c>
       <c r="E162" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F162" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7417,7 +7426,7 @@
         <v>601</v>
       </c>
       <c r="F163" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7434,10 +7443,10 @@
         <v>588</v>
       </c>
       <c r="E164" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F164" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7457,7 +7466,7 @@
         <v>597</v>
       </c>
       <c r="F165" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7477,7 +7486,7 @@
         <v>597</v>
       </c>
       <c r="F166" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7497,7 +7506,7 @@
         <v>597</v>
       </c>
       <c r="F167" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7514,10 +7523,10 @@
         <v>602</v>
       </c>
       <c r="E168" t="s">
-        <v>602</v>
+        <v>656</v>
       </c>
       <c r="F168" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7534,10 +7543,10 @@
         <v>595</v>
       </c>
       <c r="E169" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F169" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7557,7 +7566,7 @@
         <v>597</v>
       </c>
       <c r="F170" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7577,7 +7586,7 @@
         <v>593</v>
       </c>
       <c r="F171" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7594,10 +7603,10 @@
         <v>589</v>
       </c>
       <c r="E172" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F172" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7614,10 +7623,10 @@
         <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F173" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7634,10 +7643,10 @@
         <v>597</v>
       </c>
       <c r="E174" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F174" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7657,7 +7666,7 @@
         <v>600</v>
       </c>
       <c r="F175" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7674,10 +7683,10 @@
         <v>589</v>
       </c>
       <c r="E176" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F176" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7694,10 +7703,10 @@
         <v>604</v>
       </c>
       <c r="E177" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F177" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7717,7 +7726,7 @@
         <v>596</v>
       </c>
       <c r="F178" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7737,7 +7746,7 @@
         <v>597</v>
       </c>
       <c r="F179" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7754,10 +7763,10 @@
         <v>605</v>
       </c>
       <c r="E180" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F180" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7774,10 +7783,10 @@
         <v>597</v>
       </c>
       <c r="E181" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="F181" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7794,10 +7803,10 @@
         <v>605</v>
       </c>
       <c r="E182" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F182" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7817,7 +7826,7 @@
         <v>605</v>
       </c>
       <c r="F183" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7834,10 +7843,10 @@
         <v>596</v>
       </c>
       <c r="E184" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F184" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7857,7 +7866,7 @@
         <v>596</v>
       </c>
       <c r="F185" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7874,10 +7883,10 @@
         <v>595</v>
       </c>
       <c r="E186" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="F186" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7894,10 +7903,10 @@
         <v>606</v>
       </c>
       <c r="E187" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F187" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7917,7 +7926,7 @@
         <v>589</v>
       </c>
       <c r="F188" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7934,10 +7943,10 @@
         <v>595</v>
       </c>
       <c r="E189" t="s">
-        <v>661</v>
+        <v>587</v>
       </c>
       <c r="F189" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7954,10 +7963,10 @@
         <v>597</v>
       </c>
       <c r="E190" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F190" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7974,10 +7983,10 @@
         <v>607</v>
       </c>
       <c r="E191" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="F191" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7997,7 +8006,7 @@
         <v>594</v>
       </c>
       <c r="F192" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8017,7 +8026,7 @@
         <v>595</v>
       </c>
       <c r="F193" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8034,10 +8043,10 @@
         <v>595</v>
       </c>
       <c r="E194" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="F194" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8054,10 +8063,10 @@
         <v>608</v>
       </c>
       <c r="E195" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F195" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8074,10 +8083,10 @@
         <v>584</v>
       </c>
       <c r="E196" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F196" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8094,10 +8103,10 @@
         <v>597</v>
       </c>
       <c r="E197" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="F197" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8114,10 +8123,10 @@
         <v>596</v>
       </c>
       <c r="E198" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F198" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8134,10 +8143,10 @@
         <v>598</v>
       </c>
       <c r="E199" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F199" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8157,7 +8166,7 @@
         <v>595</v>
       </c>
       <c r="F200" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8177,7 +8186,7 @@
         <v>601</v>
       </c>
       <c r="F201" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8194,10 +8203,10 @@
         <v>595</v>
       </c>
       <c r="E202" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F202" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8214,10 +8223,10 @@
         <v>597</v>
       </c>
       <c r="E203" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="F203" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8237,7 +8246,7 @@
         <v>609</v>
       </c>
       <c r="F204" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8257,7 +8266,7 @@
         <v>587</v>
       </c>
       <c r="F205" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8274,10 +8283,10 @@
         <v>589</v>
       </c>
       <c r="E206" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F206" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8297,7 +8306,7 @@
         <v>601</v>
       </c>
       <c r="F207" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8314,10 +8323,10 @@
         <v>597</v>
       </c>
       <c r="E208" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F208" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8334,10 +8343,10 @@
         <v>610</v>
       </c>
       <c r="E209" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F209" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8354,10 +8363,10 @@
         <v>609</v>
       </c>
       <c r="E210" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F210" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8374,10 +8383,10 @@
         <v>596</v>
       </c>
       <c r="E211" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="F211" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8394,10 +8403,10 @@
         <v>609</v>
       </c>
       <c r="E212" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F212" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8414,10 +8423,10 @@
         <v>611</v>
       </c>
       <c r="E213" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="F213" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8437,7 +8446,7 @@
         <v>605</v>
       </c>
       <c r="F214" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8454,10 +8463,10 @@
         <v>595</v>
       </c>
       <c r="E215" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F215" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8477,7 +8486,7 @@
         <v>597</v>
       </c>
       <c r="F216" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8494,10 +8503,10 @@
         <v>589</v>
       </c>
       <c r="E217" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
       <c r="F217" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8514,10 +8523,10 @@
         <v>589</v>
       </c>
       <c r="E218" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F218" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8534,10 +8543,10 @@
         <v>596</v>
       </c>
       <c r="E219" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="F219" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8557,7 +8566,7 @@
         <v>595</v>
       </c>
       <c r="F220" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8574,10 +8583,10 @@
         <v>610</v>
       </c>
       <c r="E221" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
       <c r="F221" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8597,7 +8606,7 @@
         <v>595</v>
       </c>
       <c r="F222" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8617,7 +8626,7 @@
         <v>597</v>
       </c>
       <c r="F223" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8637,7 +8646,7 @@
         <v>605</v>
       </c>
       <c r="F224" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8654,10 +8663,10 @@
         <v>589</v>
       </c>
       <c r="E225" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F225" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8677,7 +8686,7 @@
         <v>595</v>
       </c>
       <c r="F226" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8697,7 +8706,7 @@
         <v>598</v>
       </c>
       <c r="F227" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8717,7 +8726,7 @@
         <v>604</v>
       </c>
       <c r="F228" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8734,10 +8743,10 @@
         <v>597</v>
       </c>
       <c r="E229" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F229" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8754,10 +8763,10 @@
         <v>598</v>
       </c>
       <c r="E230" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F230" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8774,10 +8783,10 @@
         <v>597</v>
       </c>
       <c r="E231" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F231" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8794,10 +8803,10 @@
         <v>597</v>
       </c>
       <c r="E232" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="F232" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8814,10 +8823,10 @@
         <v>612</v>
       </c>
       <c r="E233" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F233" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8834,10 +8843,10 @@
         <v>595</v>
       </c>
       <c r="E234" t="s">
-        <v>661</v>
+        <v>618</v>
       </c>
       <c r="F234" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8854,10 +8863,10 @@
         <v>597</v>
       </c>
       <c r="E235" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F235" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8877,7 +8886,7 @@
         <v>595</v>
       </c>
       <c r="F236" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8894,10 +8903,10 @@
         <v>596</v>
       </c>
       <c r="E237" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F237" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8914,10 +8923,10 @@
         <v>610</v>
       </c>
       <c r="E238" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F238" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8934,10 +8943,10 @@
         <v>595</v>
       </c>
       <c r="E239" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="F239" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8954,10 +8963,10 @@
         <v>596</v>
       </c>
       <c r="E240" t="s">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="F240" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8974,10 +8983,10 @@
         <v>610</v>
       </c>
       <c r="E241" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F241" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8994,10 +9003,10 @@
         <v>610</v>
       </c>
       <c r="E242" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="F242" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9017,7 +9026,7 @@
         <v>601</v>
       </c>
       <c r="F243" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9034,10 +9043,10 @@
         <v>596</v>
       </c>
       <c r="E244" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="F244" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9054,10 +9063,10 @@
         <v>595</v>
       </c>
       <c r="E245" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F245" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9074,10 +9083,10 @@
         <v>610</v>
       </c>
       <c r="E246" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F246" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9094,10 +9103,10 @@
         <v>605</v>
       </c>
       <c r="E247" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="F247" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9114,10 +9123,10 @@
         <v>589</v>
       </c>
       <c r="E248" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F248" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9137,7 +9146,7 @@
         <v>597</v>
       </c>
       <c r="F249" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9154,10 +9163,10 @@
         <v>597</v>
       </c>
       <c r="E250" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F250" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9174,10 +9183,10 @@
         <v>601</v>
       </c>
       <c r="E251" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F251" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9194,10 +9203,10 @@
         <v>596</v>
       </c>
       <c r="E252" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="F252" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9214,10 +9223,10 @@
         <v>605</v>
       </c>
       <c r="E253" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F253" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9234,10 +9243,10 @@
         <v>613</v>
       </c>
       <c r="E254" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F254" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9257,7 +9266,7 @@
         <v>595</v>
       </c>
       <c r="F255" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9274,10 +9283,10 @@
         <v>597</v>
       </c>
       <c r="E256" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="F256" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9294,10 +9303,10 @@
         <v>605</v>
       </c>
       <c r="E257" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F257" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9314,10 +9323,10 @@
         <v>597</v>
       </c>
       <c r="E258" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="F258" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9337,7 +9346,7 @@
         <v>594</v>
       </c>
       <c r="F259" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9357,7 +9366,7 @@
         <v>597</v>
       </c>
       <c r="F260" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9377,7 +9386,7 @@
         <v>596</v>
       </c>
       <c r="F261" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9394,10 +9403,10 @@
         <v>589</v>
       </c>
       <c r="E262" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F262" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9417,7 +9426,7 @@
         <v>589</v>
       </c>
       <c r="F263" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9434,10 +9443,10 @@
         <v>589</v>
       </c>
       <c r="E264" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
       <c r="F264" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9457,7 +9466,7 @@
         <v>597</v>
       </c>
       <c r="F265" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9477,7 +9486,7 @@
         <v>605</v>
       </c>
       <c r="F266" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9497,7 +9506,7 @@
         <v>597</v>
       </c>
       <c r="F267" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9517,7 +9526,7 @@
         <v>597</v>
       </c>
       <c r="F268" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9534,10 +9543,10 @@
         <v>588</v>
       </c>
       <c r="E269" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F269" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9557,7 +9566,7 @@
         <v>597</v>
       </c>
       <c r="F270" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9574,10 +9583,10 @@
         <v>585</v>
       </c>
       <c r="E271" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F271" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9594,10 +9603,10 @@
         <v>601</v>
       </c>
       <c r="E272" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F272" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9614,10 +9623,10 @@
         <v>611</v>
       </c>
       <c r="E273" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
       <c r="F273" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9634,10 +9643,10 @@
         <v>614</v>
       </c>
       <c r="E274" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F274" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9657,7 +9666,7 @@
         <v>605</v>
       </c>
       <c r="F275" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9674,10 +9683,10 @@
         <v>596</v>
       </c>
       <c r="E276" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="F276" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -9697,7 +9706,7 @@
         <v>604</v>
       </c>
       <c r="F277" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -9717,7 +9726,7 @@
         <v>615</v>
       </c>
       <c r="F278" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -9737,7 +9746,7 @@
         <v>618</v>
       </c>
       <c r="F279" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -9754,10 +9763,10 @@
         <v>616</v>
       </c>
       <c r="E280" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F280" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -9774,10 +9783,10 @@
         <v>617</v>
       </c>
       <c r="E281" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F281" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -9794,10 +9803,10 @@
         <v>608</v>
       </c>
       <c r="E282" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="F282" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -9814,10 +9823,10 @@
         <v>597</v>
       </c>
       <c r="E283" t="s">
-        <v>602</v>
+        <v>694</v>
       </c>
       <c r="F283" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -9837,7 +9846,7 @@
         <v>605</v>
       </c>
       <c r="F284" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -9854,10 +9863,10 @@
         <v>618</v>
       </c>
       <c r="E285" t="s">
-        <v>661</v>
+        <v>599</v>
       </c>
       <c r="F285" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -9874,10 +9883,10 @@
         <v>589</v>
       </c>
       <c r="E286" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F286" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -9897,7 +9906,7 @@
         <v>597</v>
       </c>
       <c r="F287" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -9917,7 +9926,7 @@
         <v>605</v>
       </c>
       <c r="F288" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -9937,7 +9946,7 @@
         <v>611</v>
       </c>
       <c r="F289" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -9957,7 +9966,7 @@
         <v>597</v>
       </c>
       <c r="F290" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -9974,10 +9983,10 @@
         <v>596</v>
       </c>
       <c r="E291" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="F291" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -9997,7 +10006,7 @@
         <v>599</v>
       </c>
       <c r="F292" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -10014,10 +10023,10 @@
         <v>601</v>
       </c>
       <c r="E293" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="F293" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -10037,7 +10046,7 @@
         <v>596</v>
       </c>
       <c r="F294" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -10057,7 +10066,7 @@
         <v>589</v>
       </c>
       <c r="F295" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -10077,7 +10086,7 @@
         <v>597</v>
       </c>
       <c r="F296" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -10094,10 +10103,10 @@
         <v>589</v>
       </c>
       <c r="E297" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -10114,10 +10123,10 @@
         <v>597</v>
       </c>
       <c r="E298" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F298" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -10134,10 +10143,10 @@
         <v>589</v>
       </c>
       <c r="E299" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F299" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -10154,10 +10163,10 @@
         <v>619</v>
       </c>
       <c r="E300" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F300" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -10174,10 +10183,10 @@
         <v>589</v>
       </c>
       <c r="E301" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="F301" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -10194,10 +10203,10 @@
         <v>589</v>
       </c>
       <c r="E302" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="F302" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -10214,10 +10223,10 @@
         <v>595</v>
       </c>
       <c r="E303" t="s">
-        <v>681</v>
+        <v>644</v>
       </c>
       <c r="F303" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -10237,7 +10246,7 @@
         <v>602</v>
       </c>
       <c r="F304" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10257,7 +10266,7 @@
         <v>597</v>
       </c>
       <c r="F305" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -10274,10 +10283,10 @@
         <v>597</v>
       </c>
       <c r="E306" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F306" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -10297,7 +10306,7 @@
         <v>598</v>
       </c>
       <c r="F307" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -10317,7 +10326,7 @@
         <v>605</v>
       </c>
       <c r="F308" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -10334,10 +10343,10 @@
         <v>597</v>
       </c>
       <c r="E309" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F309" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -10357,7 +10366,7 @@
         <v>611</v>
       </c>
       <c r="F310" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -10374,10 +10383,10 @@
         <v>620</v>
       </c>
       <c r="E311" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F311" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -10394,10 +10403,10 @@
         <v>597</v>
       </c>
       <c r="E312" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F312" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -10414,10 +10423,10 @@
         <v>589</v>
       </c>
       <c r="E313" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="F313" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -10434,10 +10443,10 @@
         <v>618</v>
       </c>
       <c r="E314" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F314" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -10454,10 +10463,10 @@
         <v>608</v>
       </c>
       <c r="E315" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="F315" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -10474,10 +10483,10 @@
         <v>621</v>
       </c>
       <c r="E316" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F316" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10497,7 +10506,7 @@
         <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10514,10 +10523,10 @@
         <v>596</v>
       </c>
       <c r="E318" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F318" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -10537,7 +10546,7 @@
         <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10557,7 +10566,7 @@
         <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -10574,10 +10583,10 @@
         <v>597</v>
       </c>
       <c r="E321" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -10594,10 +10603,10 @@
         <v>598</v>
       </c>
       <c r="E322" t="s">
-        <v>642</v>
+        <v>703</v>
       </c>
       <c r="F322" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -10614,10 +10623,10 @@
         <v>597</v>
       </c>
       <c r="E323" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F323" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -10637,7 +10646,7 @@
         <v>602</v>
       </c>
       <c r="F324" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10654,10 +10663,10 @@
         <v>622</v>
       </c>
       <c r="E325" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F325" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -10677,7 +10686,7 @@
         <v>596</v>
       </c>
       <c r="F326" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -10697,7 +10706,7 @@
         <v>596</v>
       </c>
       <c r="F327" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -10714,10 +10723,10 @@
         <v>589</v>
       </c>
       <c r="E328" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F328" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -10734,10 +10743,10 @@
         <v>589</v>
       </c>
       <c r="E329" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F329" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -10757,7 +10766,7 @@
         <v>597</v>
       </c>
       <c r="F330" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -10774,10 +10783,10 @@
         <v>597</v>
       </c>
       <c r="E331" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F331" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -10794,10 +10803,10 @@
         <v>595</v>
       </c>
       <c r="E332" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="F332" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -10814,10 +10823,10 @@
         <v>596</v>
       </c>
       <c r="E333" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F333" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -10834,10 +10843,10 @@
         <v>589</v>
       </c>
       <c r="E334" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
       <c r="F334" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -10854,10 +10863,10 @@
         <v>589</v>
       </c>
       <c r="E335" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F335" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -10877,7 +10886,7 @@
         <v>598</v>
       </c>
       <c r="F336" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -10894,10 +10903,10 @@
         <v>597</v>
       </c>
       <c r="E337" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F337" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -10917,7 +10926,7 @@
         <v>595</v>
       </c>
       <c r="F338" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -10937,7 +10946,7 @@
         <v>597</v>
       </c>
       <c r="F339" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -10957,7 +10966,7 @@
         <v>595</v>
       </c>
       <c r="F340" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -10974,10 +10983,10 @@
         <v>623</v>
       </c>
       <c r="E341" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F341" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -10994,10 +11003,10 @@
         <v>597</v>
       </c>
       <c r="E342" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="F342" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -11017,7 +11026,7 @@
         <v>605</v>
       </c>
       <c r="F343" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -11037,7 +11046,7 @@
         <v>604</v>
       </c>
       <c r="F344" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -11057,7 +11066,7 @@
         <v>597</v>
       </c>
       <c r="F345" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -11077,7 +11086,7 @@
         <v>597</v>
       </c>
       <c r="F346" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -11097,7 +11106,7 @@
         <v>611</v>
       </c>
       <c r="F347" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -11114,10 +11123,10 @@
         <v>608</v>
       </c>
       <c r="E348" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F348" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -11134,10 +11143,10 @@
         <v>597</v>
       </c>
       <c r="E349" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F349" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -11154,10 +11163,10 @@
         <v>589</v>
       </c>
       <c r="E350" t="s">
-        <v>705</v>
+        <v>656</v>
       </c>
       <c r="F350" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -11174,10 +11183,10 @@
         <v>597</v>
       </c>
       <c r="E351" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F351" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -11194,10 +11203,10 @@
         <v>597</v>
       </c>
       <c r="E352" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F352" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -11214,10 +11223,10 @@
         <v>598</v>
       </c>
       <c r="E353" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="F353" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -11237,7 +11246,7 @@
         <v>584</v>
       </c>
       <c r="F354" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -11257,7 +11266,7 @@
         <v>597</v>
       </c>
       <c r="F355" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -11277,7 +11286,7 @@
         <v>601</v>
       </c>
       <c r="F356" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -11294,10 +11303,10 @@
         <v>604</v>
       </c>
       <c r="E357" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F357" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -11314,10 +11323,10 @@
         <v>596</v>
       </c>
       <c r="E358" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="F358" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -11334,10 +11343,10 @@
         <v>624</v>
       </c>
       <c r="E359" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F359" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -11354,10 +11363,10 @@
         <v>601</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F360" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -11377,7 +11386,7 @@
         <v>597</v>
       </c>
       <c r="F361" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -11397,7 +11406,7 @@
         <v>595</v>
       </c>
       <c r="F362" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -11414,10 +11423,10 @@
         <v>597</v>
       </c>
       <c r="E363" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F363" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -11437,7 +11446,7 @@
         <v>595</v>
       </c>
       <c r="F364" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -11454,10 +11463,10 @@
         <v>595</v>
       </c>
       <c r="E365" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F365" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -11477,7 +11486,7 @@
         <v>597</v>
       </c>
       <c r="F366" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -11497,7 +11506,7 @@
         <v>595</v>
       </c>
       <c r="F367" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -11514,10 +11523,10 @@
         <v>618</v>
       </c>
       <c r="E368" t="s">
-        <v>603</v>
+        <v>714</v>
       </c>
       <c r="F368" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -11537,7 +11546,7 @@
         <v>596</v>
       </c>
       <c r="F369" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -11557,7 +11566,7 @@
         <v>605</v>
       </c>
       <c r="F370" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11577,7 +11586,7 @@
         <v>611</v>
       </c>
       <c r="F371" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -11597,7 +11606,7 @@
         <v>597</v>
       </c>
       <c r="F372" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11617,7 +11626,7 @@
         <v>597</v>
       </c>
       <c r="F373" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -11634,10 +11643,10 @@
         <v>596</v>
       </c>
       <c r="E374" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F374" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11657,7 +11666,7 @@
         <v>596</v>
       </c>
       <c r="F375" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11677,7 +11686,7 @@
         <v>597</v>
       </c>
       <c r="F376" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11697,7 +11706,7 @@
         <v>605</v>
       </c>
       <c r="F377" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -11714,10 +11723,10 @@
         <v>597</v>
       </c>
       <c r="E378" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="F378" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -11737,7 +11746,7 @@
         <v>604</v>
       </c>
       <c r="F379" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11754,10 +11763,10 @@
         <v>596</v>
       </c>
       <c r="E380" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F380" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11774,10 +11783,10 @@
         <v>595</v>
       </c>
       <c r="E381" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F381" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11797,7 +11806,7 @@
         <v>594</v>
       </c>
       <c r="F382" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -11817,7 +11826,7 @@
         <v>585</v>
       </c>
       <c r="F383" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -11834,10 +11843,10 @@
         <v>597</v>
       </c>
       <c r="E384" t="s">
-        <v>645</v>
+        <v>716</v>
       </c>
       <c r="F384" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -11854,10 +11863,10 @@
         <v>608</v>
       </c>
       <c r="E385" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="F385" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -11877,7 +11886,7 @@
         <v>595</v>
       </c>
       <c r="F386" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -11894,10 +11903,10 @@
         <v>617</v>
       </c>
       <c r="E387" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F387" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -11914,10 +11923,10 @@
         <v>597</v>
       </c>
       <c r="E388" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="F388" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -11934,10 +11943,10 @@
         <v>596</v>
       </c>
       <c r="E389" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F389" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -11957,7 +11966,7 @@
         <v>612</v>
       </c>
       <c r="F390" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -11974,10 +11983,10 @@
         <v>589</v>
       </c>
       <c r="E391" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="F391" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -11994,10 +12003,10 @@
         <v>585</v>
       </c>
       <c r="E392" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F392" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -12014,10 +12023,10 @@
         <v>589</v>
       </c>
       <c r="E393" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
       <c r="F393" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -12034,10 +12043,10 @@
         <v>611</v>
       </c>
       <c r="E394" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F394" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -12057,7 +12066,7 @@
         <v>605</v>
       </c>
       <c r="F395" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -12077,7 +12086,7 @@
         <v>597</v>
       </c>
       <c r="F396" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -12097,7 +12106,7 @@
         <v>597</v>
       </c>
       <c r="F397" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -12114,10 +12123,10 @@
         <v>595</v>
       </c>
       <c r="E398" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F398" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -12137,7 +12146,7 @@
         <v>596</v>
       </c>
       <c r="F399" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -12157,7 +12166,7 @@
         <v>602</v>
       </c>
       <c r="F400" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -12174,10 +12183,10 @@
         <v>599</v>
       </c>
       <c r="E401" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F401" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -12197,7 +12206,7 @@
         <v>585</v>
       </c>
       <c r="F402" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -12217,7 +12226,7 @@
         <v>588</v>
       </c>
       <c r="F403" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -12234,10 +12243,10 @@
         <v>612</v>
       </c>
       <c r="E404" t="s">
-        <v>658</v>
+        <v>719</v>
       </c>
       <c r="F404" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -12257,7 +12266,7 @@
         <v>594</v>
       </c>
       <c r="F405" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -12274,10 +12283,10 @@
         <v>597</v>
       </c>
       <c r="E406" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F406" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -12297,7 +12306,7 @@
         <v>645</v>
       </c>
       <c r="F407" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -12314,10 +12323,10 @@
         <v>594</v>
       </c>
       <c r="E408" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F408" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -12334,10 +12343,10 @@
         <v>597</v>
       </c>
       <c r="E409" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F409" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -12354,10 +12363,10 @@
         <v>588</v>
       </c>
       <c r="E410" t="s">
-        <v>662</v>
+        <v>720</v>
       </c>
       <c r="F410" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -12377,7 +12386,7 @@
         <v>645</v>
       </c>
       <c r="F411" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -12397,7 +12406,7 @@
         <v>597</v>
       </c>
       <c r="F412" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -12414,10 +12423,10 @@
         <v>589</v>
       </c>
       <c r="E413" t="s">
-        <v>625</v>
+        <v>721</v>
       </c>
       <c r="F413" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -12434,10 +12443,10 @@
         <v>625</v>
       </c>
       <c r="E414" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F414" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -12454,10 +12463,10 @@
         <v>595</v>
       </c>
       <c r="E415" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F415" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -12474,10 +12483,10 @@
         <v>595</v>
       </c>
       <c r="E416" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="F416" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -12494,10 +12503,10 @@
         <v>595</v>
       </c>
       <c r="E417" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="F417" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -12514,10 +12523,10 @@
         <v>595</v>
       </c>
       <c r="E418" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F418" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -12537,7 +12546,7 @@
         <v>597</v>
       </c>
       <c r="F419" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12557,7 +12566,7 @@
         <v>605</v>
       </c>
       <c r="F420" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -12577,7 +12586,7 @@
         <v>589</v>
       </c>
       <c r="F421" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -12594,10 +12603,10 @@
         <v>609</v>
       </c>
       <c r="E422" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F422" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -12614,10 +12623,10 @@
         <v>597</v>
       </c>
       <c r="E423" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="F423" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -12634,10 +12643,10 @@
         <v>595</v>
       </c>
       <c r="E424" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F424" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -12657,7 +12666,7 @@
         <v>626</v>
       </c>
       <c r="F425" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -12674,10 +12683,10 @@
         <v>619</v>
       </c>
       <c r="E426" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="F426" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -12697,7 +12706,7 @@
         <v>597</v>
       </c>
       <c r="F427" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -12714,10 +12723,10 @@
         <v>589</v>
       </c>
       <c r="E428" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="F428" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -12737,7 +12746,7 @@
         <v>599</v>
       </c>
       <c r="F429" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -12754,10 +12763,10 @@
         <v>601</v>
       </c>
       <c r="E430" t="s">
-        <v>624</v>
+        <v>722</v>
       </c>
       <c r="F430" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -12774,10 +12783,10 @@
         <v>595</v>
       </c>
       <c r="E431" t="s">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="F431" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -12794,10 +12803,10 @@
         <v>601</v>
       </c>
       <c r="E432" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F432" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -12817,7 +12826,7 @@
         <v>607</v>
       </c>
       <c r="F433" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -12834,10 +12843,10 @@
         <v>595</v>
       </c>
       <c r="E434" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="F434" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -12857,7 +12866,7 @@
         <v>605</v>
       </c>
       <c r="F435" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -12877,7 +12886,7 @@
         <v>610</v>
       </c>
       <c r="F436" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -12897,7 +12906,7 @@
         <v>597</v>
       </c>
       <c r="F437" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -12917,7 +12926,7 @@
         <v>589</v>
       </c>
       <c r="F438" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -12934,10 +12943,10 @@
         <v>595</v>
       </c>
       <c r="E439" t="s">
-        <v>599</v>
+        <v>728</v>
       </c>
       <c r="F439" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -12954,10 +12963,10 @@
         <v>597</v>
       </c>
       <c r="E440" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="F440" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -12977,7 +12986,7 @@
         <v>596</v>
       </c>
       <c r="F441" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -12997,7 +13006,7 @@
         <v>595</v>
       </c>
       <c r="F442" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -13014,10 +13023,10 @@
         <v>596</v>
       </c>
       <c r="E443" t="s">
-        <v>605</v>
+        <v>708</v>
       </c>
       <c r="F443" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -13037,7 +13046,7 @@
         <v>596</v>
       </c>
       <c r="F444" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -13054,10 +13063,10 @@
         <v>597</v>
       </c>
       <c r="E445" t="s">
-        <v>662</v>
+        <v>604</v>
       </c>
       <c r="F445" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -13074,10 +13083,10 @@
         <v>608</v>
       </c>
       <c r="E446" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="F446" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -13094,10 +13103,10 @@
         <v>596</v>
       </c>
       <c r="E447" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F447" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -13114,10 +13123,10 @@
         <v>597</v>
       </c>
       <c r="E448" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F448" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -13134,10 +13143,10 @@
         <v>597</v>
       </c>
       <c r="E449" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F449" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -13154,10 +13163,10 @@
         <v>597</v>
       </c>
       <c r="E450" t="s">
-        <v>604</v>
+        <v>730</v>
       </c>
       <c r="F450" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -13177,7 +13186,7 @@
         <v>602</v>
       </c>
       <c r="F451" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -13194,10 +13203,10 @@
         <v>589</v>
       </c>
       <c r="E452" t="s">
-        <v>604</v>
+        <v>731</v>
       </c>
       <c r="F452" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -13217,7 +13226,7 @@
         <v>596</v>
       </c>
       <c r="F453" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -13237,7 +13246,7 @@
         <v>605</v>
       </c>
       <c r="F454" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -13257,7 +13266,7 @@
         <v>605</v>
       </c>
       <c r="F455" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -13277,7 +13286,7 @@
         <v>597</v>
       </c>
       <c r="F456" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -13294,10 +13303,10 @@
         <v>597</v>
       </c>
       <c r="E457" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F457" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -13314,10 +13323,10 @@
         <v>619</v>
       </c>
       <c r="E458" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F458" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -13334,10 +13343,10 @@
         <v>602</v>
       </c>
       <c r="E459" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F459" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -13354,10 +13363,10 @@
         <v>595</v>
       </c>
       <c r="E460" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="F460" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -13377,7 +13386,7 @@
         <v>598</v>
       </c>
       <c r="F461" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -13394,10 +13403,10 @@
         <v>627</v>
       </c>
       <c r="E462" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="F462" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -13417,7 +13426,7 @@
         <v>601</v>
       </c>
       <c r="F463" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -13437,7 +13446,7 @@
         <v>596</v>
       </c>
       <c r="F464" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -13457,7 +13466,7 @@
         <v>595</v>
       </c>
       <c r="F465" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -13474,10 +13483,10 @@
         <v>595</v>
       </c>
       <c r="E466" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F466" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -13494,10 +13503,10 @@
         <v>597</v>
       </c>
       <c r="E467" t="s">
-        <v>726</v>
+        <v>602</v>
       </c>
       <c r="F467" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -13517,7 +13526,7 @@
         <v>605</v>
       </c>
       <c r="F468" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -13534,10 +13543,10 @@
         <v>597</v>
       </c>
       <c r="E469" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="F469" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -13557,7 +13566,7 @@
         <v>598</v>
       </c>
       <c r="F470" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -13574,10 +13583,10 @@
         <v>605</v>
       </c>
       <c r="E471" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="F471" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -13597,7 +13606,7 @@
         <v>601</v>
       </c>
       <c r="F472" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -13614,10 +13623,10 @@
         <v>597</v>
       </c>
       <c r="E473" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F473" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -13637,7 +13646,7 @@
         <v>607</v>
       </c>
       <c r="F474" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -13654,10 +13663,10 @@
         <v>597</v>
       </c>
       <c r="E475" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="F475" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -13677,7 +13686,7 @@
         <v>597</v>
       </c>
       <c r="F476" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -13697,7 +13706,7 @@
         <v>585</v>
       </c>
       <c r="F477" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -13717,7 +13726,7 @@
         <v>596</v>
       </c>
       <c r="F478" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -13734,10 +13743,10 @@
         <v>601</v>
       </c>
       <c r="E479" t="s">
-        <v>727</v>
+        <v>620</v>
       </c>
       <c r="F479" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -13754,10 +13763,10 @@
         <v>601</v>
       </c>
       <c r="E480" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="F480" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -13774,10 +13783,10 @@
         <v>596</v>
       </c>
       <c r="E481" t="s">
-        <v>622</v>
+        <v>708</v>
       </c>
       <c r="F481" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -13794,10 +13803,10 @@
         <v>626</v>
       </c>
       <c r="E482" t="s">
-        <v>690</v>
+        <v>737</v>
       </c>
       <c r="F482" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -13814,10 +13823,10 @@
         <v>596</v>
       </c>
       <c r="E483" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="F483" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -13834,10 +13843,10 @@
         <v>597</v>
       </c>
       <c r="E484" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F484" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -13857,7 +13866,7 @@
         <v>601</v>
       </c>
       <c r="F485" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -13874,10 +13883,10 @@
         <v>615</v>
       </c>
       <c r="E486" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="F486" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -13894,10 +13903,10 @@
         <v>597</v>
       </c>
       <c r="E487" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="F487" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -13917,7 +13926,7 @@
         <v>597</v>
       </c>
       <c r="F488" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -13934,10 +13943,10 @@
         <v>592</v>
       </c>
       <c r="E489" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F489" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -13957,7 +13966,7 @@
         <v>609</v>
       </c>
       <c r="F490" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -13977,7 +13986,7 @@
         <v>597</v>
       </c>
       <c r="F491" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -13994,10 +14003,10 @@
         <v>597</v>
       </c>
       <c r="E492" t="s">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="F492" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -14017,7 +14026,7 @@
         <v>608</v>
       </c>
       <c r="F493" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -14037,7 +14046,7 @@
         <v>618</v>
       </c>
       <c r="F494" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -14054,10 +14063,10 @@
         <v>596</v>
       </c>
       <c r="E495" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F495" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -14077,7 +14086,7 @@
         <v>596</v>
       </c>
       <c r="F496" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -14094,10 +14103,10 @@
         <v>609</v>
       </c>
       <c r="E497" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="F497" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -14114,10 +14123,10 @@
         <v>597</v>
       </c>
       <c r="E498" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F498" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -14137,7 +14146,7 @@
         <v>595</v>
       </c>
       <c r="F499" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -14157,7 +14166,7 @@
         <v>604</v>
       </c>
       <c r="F500" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -14177,7 +14186,7 @@
         <v>596</v>
       </c>
       <c r="F501" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -14194,10 +14203,10 @@
         <v>593</v>
       </c>
       <c r="E502" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="F502" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -14214,10 +14223,10 @@
         <v>597</v>
       </c>
       <c r="E503" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F503" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -14234,10 +14243,10 @@
         <v>589</v>
       </c>
       <c r="E504" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F504" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -14254,10 +14263,10 @@
         <v>589</v>
       </c>
       <c r="E505" t="s">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="F505" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -14277,7 +14286,7 @@
         <v>605</v>
       </c>
       <c r="F506" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -14294,10 +14303,10 @@
         <v>589</v>
       </c>
       <c r="E507" t="s">
-        <v>731</v>
+        <v>600</v>
       </c>
       <c r="F507" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -14314,10 +14323,10 @@
         <v>597</v>
       </c>
       <c r="E508" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F508" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -14337,7 +14346,7 @@
         <v>595</v>
       </c>
       <c r="F509" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -14357,7 +14366,7 @@
         <v>604</v>
       </c>
       <c r="F510" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -14377,7 +14386,7 @@
         <v>595</v>
       </c>
       <c r="F511" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -14394,10 +14403,10 @@
         <v>597</v>
       </c>
       <c r="E512" t="s">
-        <v>732</v>
+        <v>600</v>
       </c>
       <c r="F512" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -14414,10 +14423,10 @@
         <v>601</v>
       </c>
       <c r="E513" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="F513" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -14434,10 +14443,10 @@
         <v>596</v>
       </c>
       <c r="E514" t="s">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="F514" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -14457,7 +14466,7 @@
         <v>596</v>
       </c>
       <c r="F515" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -14477,7 +14486,7 @@
         <v>597</v>
       </c>
       <c r="F516" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -14497,7 +14506,7 @@
         <v>596</v>
       </c>
       <c r="F517" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -14517,7 +14526,7 @@
         <v>605</v>
       </c>
       <c r="F518" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -14537,7 +14546,7 @@
         <v>597</v>
       </c>
       <c r="F519" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -14557,7 +14566,7 @@
         <v>595</v>
       </c>
       <c r="F520" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -14577,7 +14586,7 @@
         <v>597</v>
       </c>
       <c r="F521" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -14594,10 +14603,10 @@
         <v>589</v>
       </c>
       <c r="E522" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F522" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -14617,7 +14626,7 @@
         <v>589</v>
       </c>
       <c r="F523" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -14634,10 +14643,10 @@
         <v>590</v>
       </c>
       <c r="E524" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="F524" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -14654,10 +14663,10 @@
         <v>596</v>
       </c>
       <c r="E525" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="F525" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -14674,10 +14683,10 @@
         <v>589</v>
       </c>
       <c r="E526" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F526" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -14694,10 +14703,10 @@
         <v>618</v>
       </c>
       <c r="E527" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F527" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -14717,7 +14726,7 @@
         <v>585</v>
       </c>
       <c r="F528" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -14737,7 +14746,7 @@
         <v>601</v>
       </c>
       <c r="F529" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -14754,10 +14763,10 @@
         <v>596</v>
       </c>
       <c r="E530" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="F530" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -14777,7 +14786,7 @@
         <v>595</v>
       </c>
       <c r="F531" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -14794,10 +14803,10 @@
         <v>597</v>
       </c>
       <c r="E532" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="F532" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -14817,7 +14826,7 @@
         <v>589</v>
       </c>
       <c r="F533" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -14837,7 +14846,7 @@
         <v>598</v>
       </c>
       <c r="F534" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -14857,7 +14866,7 @@
         <v>604</v>
       </c>
       <c r="F535" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -14874,10 +14883,10 @@
         <v>595</v>
       </c>
       <c r="E536" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="F536" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -14894,10 +14903,10 @@
         <v>605</v>
       </c>
       <c r="E537" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="F537" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -14914,10 +14923,10 @@
         <v>589</v>
       </c>
       <c r="E538" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="F538" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -14934,10 +14943,10 @@
         <v>629</v>
       </c>
       <c r="E539" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="F539" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -14954,10 +14963,10 @@
         <v>589</v>
       </c>
       <c r="E540" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="F540" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -14988,10 +14997,10 @@
         <v>589</v>
       </c>
       <c r="E542" t="s">
-        <v>739</v>
+        <v>648</v>
       </c>
       <c r="F542" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -15008,10 +15017,10 @@
         <v>595</v>
       </c>
       <c r="E543" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="F543" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -15028,10 +15037,10 @@
         <v>597</v>
       </c>
       <c r="E544" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F544" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -15051,7 +15060,7 @@
         <v>597</v>
       </c>
       <c r="F545" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -15071,7 +15080,7 @@
         <v>589</v>
       </c>
       <c r="F546" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -15091,7 +15100,7 @@
         <v>597</v>
       </c>
       <c r="F547" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -15108,10 +15117,10 @@
         <v>597</v>
       </c>
       <c r="E548" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F548" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -15128,10 +15137,10 @@
         <v>599</v>
       </c>
       <c r="E549" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F549" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -15151,7 +15160,7 @@
         <v>597</v>
       </c>
       <c r="F550" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -15171,7 +15180,7 @@
         <v>605</v>
       </c>
       <c r="F551" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -15188,10 +15197,10 @@
         <v>608</v>
       </c>
       <c r="E552" t="s">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="F552" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -15208,10 +15217,10 @@
         <v>596</v>
       </c>
       <c r="E553" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="F553" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -15231,7 +15240,7 @@
         <v>597</v>
       </c>
       <c r="F554" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -15248,10 +15257,10 @@
         <v>595</v>
       </c>
       <c r="E555" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="F555" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -15268,10 +15277,10 @@
         <v>595</v>
       </c>
       <c r="E556" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F556" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -15288,10 +15297,10 @@
         <v>597</v>
       </c>
       <c r="E557" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F557" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -15308,10 +15317,10 @@
         <v>624</v>
       </c>
       <c r="E558" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="F558" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -15331,7 +15340,7 @@
         <v>595</v>
       </c>
       <c r="F559" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -15348,10 +15357,10 @@
         <v>608</v>
       </c>
       <c r="E560" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F560" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -15368,10 +15377,10 @@
         <v>611</v>
       </c>
       <c r="E561" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="F561" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -15388,10 +15397,10 @@
         <v>601</v>
       </c>
       <c r="E562" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="F562" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -15408,10 +15417,10 @@
         <v>585</v>
       </c>
       <c r="E563" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F563" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -15428,10 +15437,10 @@
         <v>597</v>
       </c>
       <c r="E564" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F564" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -15448,10 +15457,10 @@
         <v>611</v>
       </c>
       <c r="E565" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F565" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -15468,10 +15477,10 @@
         <v>597</v>
       </c>
       <c r="E566" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F566" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -15488,10 +15497,10 @@
         <v>596</v>
       </c>
       <c r="E567" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F567" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -15508,10 +15517,10 @@
         <v>595</v>
       </c>
       <c r="E568" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F568" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -15531,7 +15540,7 @@
         <v>597</v>
       </c>
       <c r="F569" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -15551,7 +15560,7 @@
         <v>605</v>
       </c>
       <c r="F570" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -15571,7 +15580,7 @@
         <v>604</v>
       </c>
       <c r="F571" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -15591,7 +15600,7 @@
         <v>595</v>
       </c>
       <c r="F572" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -15611,7 +15620,7 @@
         <v>600</v>
       </c>
       <c r="F573" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -15631,7 +15640,7 @@
         <v>602</v>
       </c>
       <c r="F574" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -15648,10 +15657,10 @@
         <v>597</v>
       </c>
       <c r="E575" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="F575" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -15668,10 +15677,10 @@
         <v>595</v>
       </c>
       <c r="E576" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="F576" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -15688,10 +15697,10 @@
         <v>630</v>
       </c>
       <c r="E577" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F577" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -15708,10 +15717,10 @@
         <v>604</v>
       </c>
       <c r="E578" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="F578" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -15731,7 +15740,7 @@
         <v>605</v>
       </c>
       <c r="F579" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -15748,10 +15757,10 @@
         <v>613</v>
       </c>
       <c r="E580" t="s">
-        <v>712</v>
+        <v>613</v>
       </c>
       <c r="F580" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -15768,10 +15777,10 @@
         <v>589</v>
       </c>
       <c r="E581" t="s">
-        <v>749</v>
+        <v>677</v>
       </c>
       <c r="F581" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -15788,10 +15797,10 @@
         <v>631</v>
       </c>
       <c r="E582" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="F582" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -15811,7 +15820,7 @@
         <v>605</v>
       </c>
       <c r="F583" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -15831,7 +15840,7 @@
         <v>626</v>
       </c>
       <c r="F584" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -15848,10 +15857,10 @@
         <v>589</v>
       </c>
       <c r="E585" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="F585" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -15871,7 +15880,7 @@
         <v>595</v>
       </c>
       <c r="F586" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -15888,10 +15897,10 @@
         <v>597</v>
       </c>
       <c r="E587" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F587" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -15911,7 +15920,7 @@
         <v>645</v>
       </c>
       <c r="F588" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -15928,10 +15937,10 @@
         <v>596</v>
       </c>
       <c r="E589" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="F589" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -15948,10 +15957,10 @@
         <v>596</v>
       </c>
       <c r="E590" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="F590" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -15971,7 +15980,7 @@
         <v>595</v>
       </c>
       <c r="F591" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -15988,10 +15997,10 @@
         <v>610</v>
       </c>
       <c r="E592" t="s">
-        <v>750</v>
+        <v>665</v>
       </c>
       <c r="F592" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -16011,7 +16020,7 @@
         <v>607</v>
       </c>
       <c r="F593" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -16028,10 +16037,10 @@
         <v>589</v>
       </c>
       <c r="E594" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F594" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -16048,10 +16057,10 @@
         <v>632</v>
       </c>
       <c r="E595" t="s">
-        <v>751</v>
+        <v>679</v>
       </c>
       <c r="F595" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -16071,7 +16080,7 @@
         <v>597</v>
       </c>
       <c r="F596" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -16091,7 +16100,7 @@
         <v>597</v>
       </c>
       <c r="F597" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -16108,10 +16117,10 @@
         <v>589</v>
       </c>
       <c r="E598" t="s">
-        <v>607</v>
+        <v>660</v>
       </c>
       <c r="F598" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -16128,10 +16137,10 @@
         <v>588</v>
       </c>
       <c r="E599" t="s">
-        <v>662</v>
+        <v>755</v>
       </c>
       <c r="F599" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -16151,7 +16160,7 @@
         <v>633</v>
       </c>
       <c r="F600" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -16168,10 +16177,10 @@
         <v>597</v>
       </c>
       <c r="E601" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F601" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -16188,10 +16197,10 @@
         <v>595</v>
       </c>
       <c r="E602" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F602" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -16211,7 +16220,7 @@
         <v>597</v>
       </c>
       <c r="F603" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -16231,7 +16240,7 @@
         <v>596</v>
       </c>
       <c r="F604" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -16251,7 +16260,7 @@
         <v>597</v>
       </c>
       <c r="F605" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -16271,7 +16280,7 @@
         <v>617</v>
       </c>
       <c r="F606" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -16288,10 +16297,10 @@
         <v>599</v>
       </c>
       <c r="E607" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="F607" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -16311,7 +16320,7 @@
         <v>597</v>
       </c>
       <c r="F608" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -16328,10 +16337,10 @@
         <v>595</v>
       </c>
       <c r="E609" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="F609" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -16351,7 +16360,7 @@
         <v>597</v>
       </c>
       <c r="F610" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -16368,10 +16377,10 @@
         <v>597</v>
       </c>
       <c r="E611" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F611" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -16391,7 +16400,7 @@
         <v>610</v>
       </c>
       <c r="F612" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -16411,7 +16420,7 @@
         <v>597</v>
       </c>
       <c r="F613" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -16428,10 +16437,10 @@
         <v>604</v>
       </c>
       <c r="E614" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F614" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -16448,10 +16457,10 @@
         <v>593</v>
       </c>
       <c r="E615" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F615" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -16471,7 +16480,7 @@
         <v>605</v>
       </c>
       <c r="F616" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -16488,10 +16497,10 @@
         <v>634</v>
       </c>
       <c r="E617" t="s">
-        <v>607</v>
+        <v>644</v>
       </c>
       <c r="F617" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -16508,10 +16517,10 @@
         <v>595</v>
       </c>
       <c r="E618" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F618" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -16528,10 +16537,10 @@
         <v>597</v>
       </c>
       <c r="E619" t="s">
-        <v>626</v>
+        <v>708</v>
       </c>
       <c r="F619" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -16548,10 +16557,10 @@
         <v>597</v>
       </c>
       <c r="E620" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="F620" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -16568,10 +16577,10 @@
         <v>604</v>
       </c>
       <c r="E621" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="F621" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -16588,10 +16597,10 @@
         <v>589</v>
       </c>
       <c r="E622" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="F622" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -16611,7 +16620,7 @@
         <v>597</v>
       </c>
       <c r="F623" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -16628,10 +16637,10 @@
         <v>597</v>
       </c>
       <c r="E624" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
       <c r="F624" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -16648,10 +16657,10 @@
         <v>593</v>
       </c>
       <c r="E625" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F625" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -16668,10 +16677,10 @@
         <v>596</v>
       </c>
       <c r="E626" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="F626" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -16691,7 +16700,7 @@
         <v>605</v>
       </c>
       <c r="F627" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -16708,10 +16717,10 @@
         <v>599</v>
       </c>
       <c r="E628" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F628" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -16728,10 +16737,10 @@
         <v>597</v>
       </c>
       <c r="E629" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F629" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -16748,10 +16757,10 @@
         <v>599</v>
       </c>
       <c r="E630" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F630" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -16768,10 +16777,10 @@
         <v>589</v>
       </c>
       <c r="E631" t="s">
-        <v>756</v>
+        <v>677</v>
       </c>
       <c r="F631" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -16802,10 +16811,10 @@
         <v>596</v>
       </c>
       <c r="E633" t="s">
-        <v>757</v>
+        <v>605</v>
       </c>
       <c r="F633" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -16825,7 +16834,7 @@
         <v>595</v>
       </c>
       <c r="F634" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -16845,7 +16854,7 @@
         <v>608</v>
       </c>
       <c r="F635" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -16862,10 +16871,10 @@
         <v>597</v>
       </c>
       <c r="E636" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="F636" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -16885,7 +16894,7 @@
         <v>589</v>
       </c>
       <c r="F637" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -16902,10 +16911,10 @@
         <v>596</v>
       </c>
       <c r="E638" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F638" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -16925,7 +16934,7 @@
         <v>596</v>
       </c>
       <c r="F639" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -16942,10 +16951,10 @@
         <v>595</v>
       </c>
       <c r="E640" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="F640" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -16965,7 +16974,7 @@
         <v>601</v>
       </c>
       <c r="F641" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -16985,7 +16994,7 @@
         <v>585</v>
       </c>
       <c r="F642" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -17002,10 +17011,10 @@
         <v>597</v>
       </c>
       <c r="E643" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F643" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -17022,10 +17031,10 @@
         <v>597</v>
       </c>
       <c r="E644" t="s">
-        <v>700</v>
+        <v>761</v>
       </c>
       <c r="F644" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -17045,7 +17054,7 @@
         <v>597</v>
       </c>
       <c r="F645" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -17065,7 +17074,7 @@
         <v>627</v>
       </c>
       <c r="F646" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -17082,10 +17091,10 @@
         <v>585</v>
       </c>
       <c r="E647" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="F647" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -17102,10 +17111,10 @@
         <v>626</v>
       </c>
       <c r="E648" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F648" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -17122,10 +17131,10 @@
         <v>597</v>
       </c>
       <c r="E649" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F649" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -17145,7 +17154,7 @@
         <v>601</v>
       </c>
       <c r="F650" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -17165,7 +17174,7 @@
         <v>589</v>
       </c>
       <c r="F651" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -17182,10 +17191,10 @@
         <v>597</v>
       </c>
       <c r="E652" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="F652" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -17202,10 +17211,10 @@
         <v>595</v>
       </c>
       <c r="E653" t="s">
-        <v>612</v>
+        <v>763</v>
       </c>
       <c r="F653" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -17222,10 +17231,10 @@
         <v>595</v>
       </c>
       <c r="E654" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F654" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -17242,10 +17251,10 @@
         <v>635</v>
       </c>
       <c r="E655" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F655" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -17262,10 +17271,10 @@
         <v>636</v>
       </c>
       <c r="E656" t="s">
-        <v>728</v>
+        <v>766</v>
       </c>
       <c r="F656" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -17282,10 +17291,10 @@
         <v>595</v>
       </c>
       <c r="E657" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="F657" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -17305,7 +17314,7 @@
         <v>618</v>
       </c>
       <c r="F658" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -17322,10 +17331,10 @@
         <v>595</v>
       </c>
       <c r="E659" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="F659" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -17345,7 +17354,7 @@
         <v>595</v>
       </c>
       <c r="F660" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -17365,7 +17374,7 @@
         <v>593</v>
       </c>
       <c r="F661" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -17382,10 +17391,10 @@
         <v>608</v>
       </c>
       <c r="E662" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="F662" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -17402,10 +17411,10 @@
         <v>589</v>
       </c>
       <c r="E663" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F663" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -17422,10 +17431,10 @@
         <v>599</v>
       </c>
       <c r="E664" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="F664" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -17445,7 +17454,7 @@
         <v>597</v>
       </c>
       <c r="F665" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -17462,10 +17471,10 @@
         <v>597</v>
       </c>
       <c r="E666" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="F666" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -17482,10 +17491,10 @@
         <v>595</v>
       </c>
       <c r="E667" t="s">
-        <v>764</v>
+        <v>635</v>
       </c>
       <c r="F667" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -17502,10 +17511,10 @@
         <v>595</v>
       </c>
       <c r="E668" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F668" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -17522,10 +17531,10 @@
         <v>600</v>
       </c>
       <c r="E669" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F669" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -17545,7 +17554,7 @@
         <v>597</v>
       </c>
       <c r="F670" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -17562,10 +17571,10 @@
         <v>597</v>
       </c>
       <c r="E671" t="s">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="F671" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -17585,7 +17594,7 @@
         <v>604</v>
       </c>
       <c r="F672" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -17602,10 +17611,10 @@
         <v>637</v>
       </c>
       <c r="E673" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="F673" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -17622,10 +17631,10 @@
         <v>595</v>
       </c>
       <c r="E674" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="F674" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -17645,7 +17654,7 @@
         <v>589</v>
       </c>
       <c r="F675" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -17662,10 +17671,10 @@
         <v>596</v>
       </c>
       <c r="E676" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F676" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -17682,10 +17691,10 @@
         <v>618</v>
       </c>
       <c r="E677" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F677" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -17702,10 +17711,10 @@
         <v>618</v>
       </c>
       <c r="E678" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="F678" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -17722,10 +17731,10 @@
         <v>638</v>
       </c>
       <c r="E679" t="s">
-        <v>700</v>
+        <v>774</v>
       </c>
       <c r="F679" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -17745,7 +17754,7 @@
         <v>597</v>
       </c>
       <c r="F680" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -17762,10 +17771,10 @@
         <v>597</v>
       </c>
       <c r="E681" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F681" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -17782,10 +17791,10 @@
         <v>589</v>
       </c>
       <c r="E682" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="F682" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -17802,10 +17811,10 @@
         <v>589</v>
       </c>
       <c r="E683" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F683" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -17822,10 +17831,10 @@
         <v>589</v>
       </c>
       <c r="E684" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F684" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -17842,10 +17851,10 @@
         <v>589</v>
       </c>
       <c r="E685" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="F685" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -17862,10 +17871,10 @@
         <v>589</v>
       </c>
       <c r="E686" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F686" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -17882,10 +17891,10 @@
         <v>589</v>
       </c>
       <c r="E687" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="F687" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -17902,10 +17911,10 @@
         <v>589</v>
       </c>
       <c r="E688" t="s">
-        <v>771</v>
+        <v>677</v>
       </c>
       <c r="F688" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -17922,10 +17931,10 @@
         <v>589</v>
       </c>
       <c r="E689" t="s">
-        <v>772</v>
+        <v>677</v>
       </c>
       <c r="F689" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -17945,7 +17954,7 @@
         <v>589</v>
       </c>
       <c r="F690" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -17962,10 +17971,10 @@
         <v>589</v>
       </c>
       <c r="E691" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F691" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -17982,10 +17991,10 @@
         <v>589</v>
       </c>
       <c r="E692" t="s">
-        <v>773</v>
+        <v>677</v>
       </c>
       <c r="F692" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -18005,7 +18014,7 @@
         <v>610</v>
       </c>
       <c r="F693" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -18022,10 +18031,10 @@
         <v>589</v>
       </c>
       <c r="E694" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="F694" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -18045,7 +18054,7 @@
         <v>589</v>
       </c>
       <c r="F695" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -18065,7 +18074,7 @@
         <v>589</v>
       </c>
       <c r="F696" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -18085,7 +18094,7 @@
         <v>589</v>
       </c>
       <c r="F697" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -18105,7 +18114,7 @@
         <v>610</v>
       </c>
       <c r="F698" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -18122,10 +18131,10 @@
         <v>589</v>
       </c>
       <c r="E699" t="s">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="F699" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18142,10 +18151,10 @@
         <v>589</v>
       </c>
       <c r="E700" t="s">
-        <v>774</v>
+        <v>600</v>
       </c>
       <c r="F700" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/chunk.xlsx
+++ b/Results/Categorization/chunk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="1273">
   <si>
     <t>id</t>
   </si>
@@ -1933,16 +1933,13 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|VALUE|VALUE</t>
+    <t>VALUE|FOOD|VALUE|VALUE</t>
   </si>
   <si>
     <t>VALUE|VALUE|FOOD</t>
   </si>
   <si>
-    <t>VALUE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD</t>
+    <t>VALUE|VALUE|FOOD|VALUE</t>
   </si>
   <si>
     <t>VALUE|AMBIENCE|SERVICE</t>
@@ -1954,340 +1951,358 @@
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|VALUE|SERVICE|VALUE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|VALUE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|VALUE|AMBIENCE|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|VALUE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|VALUE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE|AMBIENCE|FOOD|FOOD|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|AMBIENCE|VALUE|VALUE|AMBIENCE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|VALUE|AMBIENCE|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|VALUE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|VALUE|VALUE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|SERVICE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|VALUE|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|VALUE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|VALUE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>VALUE|VALUE|AMBIENCE|VALUE|AMBIENCE|VALUE|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|VALUE|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|SERVICE|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|VALUE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|VALUE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|FOOD|FOOD|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|VALUE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|VALUE|AMBIENCE|AMBIENCE|SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|VALUE|AMBIENCE|VALUE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|VALUE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>SERVICE|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
@@ -2296,58 +2311,67 @@
     <t>FOOD|SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|SERVICE</t>
+    <t>VALUE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|FOOD|VALUE|VALUE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|SERVICE|FOOD|VALUE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|VALUE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|VALUE|AMBIENCE</t>
+    <t>VALUE|FOOD|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|VALUE|VALUE</t>
+  </si>
+  <si>
+    <t>VALUE|VALUE|VALUE|FOOD|FOOD|VALUE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|FOOD|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|VALUE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|VALUE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|VALUE</t>
   </si>
   <si>
     <t>place|fun|time|prices</t>
@@ -4206,7 +4230,7 @@
         <v>639</v>
       </c>
       <c r="F2" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4226,7 +4250,7 @@
         <v>640</v>
       </c>
       <c r="F3" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4246,7 +4270,7 @@
         <v>640</v>
       </c>
       <c r="F4" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4266,7 +4290,7 @@
         <v>640</v>
       </c>
       <c r="F5" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4286,7 +4310,7 @@
         <v>640</v>
       </c>
       <c r="F6" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4306,7 +4330,7 @@
         <v>640</v>
       </c>
       <c r="F7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4326,7 +4350,7 @@
         <v>640</v>
       </c>
       <c r="F8" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4346,7 +4370,7 @@
         <v>640</v>
       </c>
       <c r="F9" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4366,7 +4390,7 @@
         <v>640</v>
       </c>
       <c r="F10" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4386,7 +4410,7 @@
         <v>640</v>
       </c>
       <c r="F11" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4406,7 +4430,7 @@
         <v>640</v>
       </c>
       <c r="F12" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4426,7 +4450,7 @@
         <v>640</v>
       </c>
       <c r="F13" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4446,7 +4470,7 @@
         <v>640</v>
       </c>
       <c r="F14" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4466,7 +4490,7 @@
         <v>640</v>
       </c>
       <c r="F15" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4486,7 +4510,7 @@
         <v>640</v>
       </c>
       <c r="F16" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4506,7 +4530,7 @@
         <v>640</v>
       </c>
       <c r="F17" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4526,7 +4550,7 @@
         <v>640</v>
       </c>
       <c r="F18" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4546,7 +4570,7 @@
         <v>585</v>
       </c>
       <c r="F19" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4566,7 +4590,7 @@
         <v>585</v>
       </c>
       <c r="F20" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4586,7 +4610,7 @@
         <v>585</v>
       </c>
       <c r="F21" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4606,7 +4630,7 @@
         <v>585</v>
       </c>
       <c r="F22" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4626,7 +4650,7 @@
         <v>585</v>
       </c>
       <c r="F23" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4646,7 +4670,7 @@
         <v>585</v>
       </c>
       <c r="F24" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4666,7 +4690,7 @@
         <v>585</v>
       </c>
       <c r="F25" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4686,7 +4710,7 @@
         <v>585</v>
       </c>
       <c r="F26" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4706,7 +4730,7 @@
         <v>585</v>
       </c>
       <c r="F27" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4726,7 +4750,7 @@
         <v>585</v>
       </c>
       <c r="F28" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4746,7 +4770,7 @@
         <v>585</v>
       </c>
       <c r="F29" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4766,7 +4790,7 @@
         <v>585</v>
       </c>
       <c r="F30" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4786,7 +4810,7 @@
         <v>585</v>
       </c>
       <c r="F31" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4806,7 +4830,7 @@
         <v>585</v>
       </c>
       <c r="F32" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4826,7 +4850,7 @@
         <v>585</v>
       </c>
       <c r="F33" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4846,7 +4870,7 @@
         <v>641</v>
       </c>
       <c r="F34" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4866,7 +4890,7 @@
         <v>592</v>
       </c>
       <c r="F35" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4883,10 +4907,10 @@
         <v>587</v>
       </c>
       <c r="E36" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F36" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4906,7 +4930,7 @@
         <v>585</v>
       </c>
       <c r="F37" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4926,7 +4950,7 @@
         <v>589</v>
       </c>
       <c r="F38" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4943,10 +4967,10 @@
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F39" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4966,7 +4990,7 @@
         <v>585</v>
       </c>
       <c r="F40" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4986,7 +5010,7 @@
         <v>589</v>
       </c>
       <c r="F41" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5003,10 +5027,10 @@
         <v>587</v>
       </c>
       <c r="E42" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F42" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5026,7 +5050,7 @@
         <v>585</v>
       </c>
       <c r="F43" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5046,7 +5070,7 @@
         <v>589</v>
       </c>
       <c r="F44" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5063,10 +5087,10 @@
         <v>587</v>
       </c>
       <c r="E45" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F45" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5086,7 +5110,7 @@
         <v>585</v>
       </c>
       <c r="F46" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5106,7 +5130,7 @@
         <v>589</v>
       </c>
       <c r="F47" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5123,10 +5147,10 @@
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F48" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5146,7 +5170,7 @@
         <v>585</v>
       </c>
       <c r="F49" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5166,7 +5190,7 @@
         <v>589</v>
       </c>
       <c r="F50" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5183,10 +5207,10 @@
         <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F51" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5206,7 +5230,7 @@
         <v>585</v>
       </c>
       <c r="F52" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5226,7 +5250,7 @@
         <v>589</v>
       </c>
       <c r="F53" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5243,10 +5267,10 @@
         <v>587</v>
       </c>
       <c r="E54" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F54" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5266,7 +5290,7 @@
         <v>585</v>
       </c>
       <c r="F55" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5286,7 +5310,7 @@
         <v>589</v>
       </c>
       <c r="F56" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5303,10 +5327,10 @@
         <v>587</v>
       </c>
       <c r="E57" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F57" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5326,7 +5350,7 @@
         <v>585</v>
       </c>
       <c r="F58" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5346,7 +5370,7 @@
         <v>589</v>
       </c>
       <c r="F59" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5363,10 +5387,10 @@
         <v>587</v>
       </c>
       <c r="E60" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F60" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5386,7 +5410,7 @@
         <v>585</v>
       </c>
       <c r="F61" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5406,7 +5430,7 @@
         <v>589</v>
       </c>
       <c r="F62" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5423,10 +5447,10 @@
         <v>587</v>
       </c>
       <c r="E63" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F63" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5446,7 +5470,7 @@
         <v>585</v>
       </c>
       <c r="F64" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5466,7 +5490,7 @@
         <v>589</v>
       </c>
       <c r="F65" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5483,10 +5507,10 @@
         <v>587</v>
       </c>
       <c r="E66" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F66" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5506,7 +5530,7 @@
         <v>585</v>
       </c>
       <c r="F67" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5526,7 +5550,7 @@
         <v>589</v>
       </c>
       <c r="F68" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5543,10 +5567,10 @@
         <v>587</v>
       </c>
       <c r="E69" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F69" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5566,7 +5590,7 @@
         <v>585</v>
       </c>
       <c r="F70" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5586,7 +5610,7 @@
         <v>589</v>
       </c>
       <c r="F71" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5603,10 +5627,10 @@
         <v>587</v>
       </c>
       <c r="E72" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F72" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5626,7 +5650,7 @@
         <v>585</v>
       </c>
       <c r="F73" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5646,7 +5670,7 @@
         <v>589</v>
       </c>
       <c r="F74" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5663,10 +5687,10 @@
         <v>587</v>
       </c>
       <c r="E75" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F75" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5686,7 +5710,7 @@
         <v>585</v>
       </c>
       <c r="F76" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5706,7 +5730,7 @@
         <v>589</v>
       </c>
       <c r="F77" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5723,10 +5747,10 @@
         <v>587</v>
       </c>
       <c r="E78" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F78" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5746,7 +5770,7 @@
         <v>585</v>
       </c>
       <c r="F79" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5766,7 +5790,7 @@
         <v>589</v>
       </c>
       <c r="F80" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5783,10 +5807,10 @@
         <v>587</v>
       </c>
       <c r="E81" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F81" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5806,7 +5830,7 @@
         <v>585</v>
       </c>
       <c r="F82" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5826,7 +5850,7 @@
         <v>589</v>
       </c>
       <c r="F83" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5843,10 +5867,10 @@
         <v>587</v>
       </c>
       <c r="E84" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F84" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5866,7 +5890,7 @@
         <v>585</v>
       </c>
       <c r="F85" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5886,7 +5910,7 @@
         <v>589</v>
       </c>
       <c r="F86" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5903,10 +5927,10 @@
         <v>587</v>
       </c>
       <c r="E87" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F87" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5926,7 +5950,7 @@
         <v>585</v>
       </c>
       <c r="F88" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5946,7 +5970,7 @@
         <v>589</v>
       </c>
       <c r="F89" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5963,10 +5987,10 @@
         <v>587</v>
       </c>
       <c r="E90" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F90" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5986,7 +6010,7 @@
         <v>585</v>
       </c>
       <c r="F91" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6006,7 +6030,7 @@
         <v>589</v>
       </c>
       <c r="F92" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6023,10 +6047,10 @@
         <v>587</v>
       </c>
       <c r="E93" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F93" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6046,7 +6070,7 @@
         <v>585</v>
       </c>
       <c r="F94" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6066,7 +6090,7 @@
         <v>589</v>
       </c>
       <c r="F95" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6083,10 +6107,10 @@
         <v>587</v>
       </c>
       <c r="E96" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F96" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6106,7 +6130,7 @@
         <v>585</v>
       </c>
       <c r="F97" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6126,7 +6150,7 @@
         <v>589</v>
       </c>
       <c r="F98" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6143,10 +6167,10 @@
         <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F99" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6166,7 +6190,7 @@
         <v>585</v>
       </c>
       <c r="F100" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6186,7 +6210,7 @@
         <v>589</v>
       </c>
       <c r="F101" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6203,10 +6227,10 @@
         <v>587</v>
       </c>
       <c r="E102" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F102" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6226,7 +6250,7 @@
         <v>585</v>
       </c>
       <c r="F103" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6246,7 +6270,7 @@
         <v>589</v>
       </c>
       <c r="F104" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6263,10 +6287,10 @@
         <v>587</v>
       </c>
       <c r="E105" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F105" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6286,7 +6310,7 @@
         <v>585</v>
       </c>
       <c r="F106" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6306,7 +6330,7 @@
         <v>589</v>
       </c>
       <c r="F107" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6323,10 +6347,10 @@
         <v>587</v>
       </c>
       <c r="E108" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F108" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6346,7 +6370,7 @@
         <v>585</v>
       </c>
       <c r="F109" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6366,7 +6390,7 @@
         <v>589</v>
       </c>
       <c r="F110" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6383,10 +6407,10 @@
         <v>587</v>
       </c>
       <c r="E111" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F111" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6406,7 +6430,7 @@
         <v>585</v>
       </c>
       <c r="F112" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6426,7 +6450,7 @@
         <v>589</v>
       </c>
       <c r="F113" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6443,10 +6467,10 @@
         <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="F114" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6466,7 +6490,7 @@
         <v>585</v>
       </c>
       <c r="F115" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6486,7 +6510,7 @@
         <v>589</v>
       </c>
       <c r="F116" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6506,7 +6530,7 @@
         <v>585</v>
       </c>
       <c r="F117" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6526,7 +6550,7 @@
         <v>585</v>
       </c>
       <c r="F118" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6546,7 +6570,7 @@
         <v>590</v>
       </c>
       <c r="F119" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6566,7 +6590,7 @@
         <v>603</v>
       </c>
       <c r="F120" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6583,10 +6607,10 @@
         <v>592</v>
       </c>
       <c r="E121" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F121" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6606,7 +6630,7 @@
         <v>593</v>
       </c>
       <c r="F122" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6623,10 +6647,10 @@
         <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F123" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6646,7 +6670,7 @@
         <v>584</v>
       </c>
       <c r="F124" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6666,7 +6690,7 @@
         <v>584</v>
       </c>
       <c r="F125" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6686,7 +6710,7 @@
         <v>584</v>
       </c>
       <c r="F126" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6706,7 +6730,7 @@
         <v>584</v>
       </c>
       <c r="F127" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6726,7 +6750,7 @@
         <v>584</v>
       </c>
       <c r="F128" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6746,7 +6770,7 @@
         <v>584</v>
       </c>
       <c r="F129" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6766,7 +6790,7 @@
         <v>584</v>
       </c>
       <c r="F130" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6786,7 +6810,7 @@
         <v>584</v>
       </c>
       <c r="F131" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6806,7 +6830,7 @@
         <v>584</v>
       </c>
       <c r="F132" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6826,7 +6850,7 @@
         <v>584</v>
       </c>
       <c r="F133" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6846,7 +6870,7 @@
         <v>584</v>
       </c>
       <c r="F134" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6866,7 +6890,7 @@
         <v>584</v>
       </c>
       <c r="F135" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6886,7 +6910,7 @@
         <v>584</v>
       </c>
       <c r="F136" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6903,10 +6927,10 @@
         <v>594</v>
       </c>
       <c r="E137" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F137" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6923,10 +6947,10 @@
         <v>595</v>
       </c>
       <c r="E138" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F138" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6946,7 +6970,7 @@
         <v>596</v>
       </c>
       <c r="F139" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6966,7 +6990,7 @@
         <v>605</v>
       </c>
       <c r="F140" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6983,10 +7007,10 @@
         <v>596</v>
       </c>
       <c r="E141" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F141" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7003,10 +7027,10 @@
         <v>596</v>
       </c>
       <c r="E142" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F142" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7026,7 +7050,7 @@
         <v>603</v>
       </c>
       <c r="F143" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7043,10 +7067,10 @@
         <v>599</v>
       </c>
       <c r="E144" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F144" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7063,10 +7087,10 @@
         <v>597</v>
       </c>
       <c r="E145" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F145" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7083,10 +7107,10 @@
         <v>596</v>
       </c>
       <c r="E146" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="F146" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -7106,7 +7130,7 @@
         <v>631</v>
       </c>
       <c r="F147" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -7126,7 +7150,7 @@
         <v>604</v>
       </c>
       <c r="F148" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -7143,10 +7167,10 @@
         <v>600</v>
       </c>
       <c r="E149" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F149" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7163,10 +7187,10 @@
         <v>596</v>
       </c>
       <c r="E150" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F150" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7186,7 +7210,7 @@
         <v>594</v>
       </c>
       <c r="F151" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -7206,7 +7230,7 @@
         <v>597</v>
       </c>
       <c r="F152" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7226,7 +7250,7 @@
         <v>595</v>
       </c>
       <c r="F153" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7246,7 +7270,7 @@
         <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7263,10 +7287,10 @@
         <v>595</v>
       </c>
       <c r="E155" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F155" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7283,10 +7307,10 @@
         <v>595</v>
       </c>
       <c r="E156" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F156" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7306,7 +7330,7 @@
         <v>597</v>
       </c>
       <c r="F157" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7326,7 +7350,7 @@
         <v>618</v>
       </c>
       <c r="F158" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7343,10 +7367,10 @@
         <v>597</v>
       </c>
       <c r="E159" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F159" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7366,7 +7390,7 @@
         <v>597</v>
       </c>
       <c r="F160" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7386,7 +7410,7 @@
         <v>604</v>
       </c>
       <c r="F161" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7403,10 +7427,10 @@
         <v>597</v>
       </c>
       <c r="E162" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F162" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7426,7 +7450,7 @@
         <v>601</v>
       </c>
       <c r="F163" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7443,10 +7467,10 @@
         <v>588</v>
       </c>
       <c r="E164" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F164" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7466,7 +7490,7 @@
         <v>597</v>
       </c>
       <c r="F165" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7486,7 +7510,7 @@
         <v>597</v>
       </c>
       <c r="F166" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7506,7 +7530,7 @@
         <v>597</v>
       </c>
       <c r="F167" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7523,10 +7547,10 @@
         <v>602</v>
       </c>
       <c r="E168" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F168" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7543,10 +7567,10 @@
         <v>595</v>
       </c>
       <c r="E169" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F169" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7566,7 +7590,7 @@
         <v>597</v>
       </c>
       <c r="F170" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7586,7 +7610,7 @@
         <v>593</v>
       </c>
       <c r="F171" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7603,10 +7627,10 @@
         <v>589</v>
       </c>
       <c r="E172" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F172" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7623,10 +7647,10 @@
         <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F173" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7643,10 +7667,10 @@
         <v>597</v>
       </c>
       <c r="E174" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="F174" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7666,7 +7690,7 @@
         <v>600</v>
       </c>
       <c r="F175" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7686,7 +7710,7 @@
         <v>610</v>
       </c>
       <c r="F176" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7703,10 +7727,10 @@
         <v>604</v>
       </c>
       <c r="E177" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F177" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7726,7 +7750,7 @@
         <v>596</v>
       </c>
       <c r="F178" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7746,7 +7770,7 @@
         <v>597</v>
       </c>
       <c r="F179" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7763,10 +7787,10 @@
         <v>605</v>
       </c>
       <c r="E180" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="F180" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7783,10 +7807,10 @@
         <v>597</v>
       </c>
       <c r="E181" t="s">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="F181" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7803,10 +7827,10 @@
         <v>605</v>
       </c>
       <c r="E182" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F182" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7826,7 +7850,7 @@
         <v>605</v>
       </c>
       <c r="F183" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7846,7 +7870,7 @@
         <v>596</v>
       </c>
       <c r="F184" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7866,7 +7890,7 @@
         <v>596</v>
       </c>
       <c r="F185" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7883,10 +7907,10 @@
         <v>595</v>
       </c>
       <c r="E186" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="F186" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7903,10 +7927,10 @@
         <v>606</v>
       </c>
       <c r="E187" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F187" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7926,7 +7950,7 @@
         <v>589</v>
       </c>
       <c r="F188" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7946,7 +7970,7 @@
         <v>587</v>
       </c>
       <c r="F189" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7966,7 +7990,7 @@
         <v>608</v>
       </c>
       <c r="F190" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7983,10 +8007,10 @@
         <v>607</v>
       </c>
       <c r="E191" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F191" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -8006,7 +8030,7 @@
         <v>594</v>
       </c>
       <c r="F192" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -8026,7 +8050,7 @@
         <v>595</v>
       </c>
       <c r="F193" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -8043,10 +8067,10 @@
         <v>595</v>
       </c>
       <c r="E194" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F194" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8063,10 +8087,10 @@
         <v>608</v>
       </c>
       <c r="E195" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F195" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -8083,10 +8107,10 @@
         <v>584</v>
       </c>
       <c r="E196" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="F196" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -8103,10 +8127,10 @@
         <v>597</v>
       </c>
       <c r="E197" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="F197" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -8123,10 +8147,10 @@
         <v>596</v>
       </c>
       <c r="E198" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F198" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8143,10 +8167,10 @@
         <v>598</v>
       </c>
       <c r="E199" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F199" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -8166,7 +8190,7 @@
         <v>595</v>
       </c>
       <c r="F200" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -8186,7 +8210,7 @@
         <v>601</v>
       </c>
       <c r="F201" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8203,10 +8227,10 @@
         <v>595</v>
       </c>
       <c r="E202" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F202" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -8223,10 +8247,10 @@
         <v>597</v>
       </c>
       <c r="E203" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F203" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8246,7 +8270,7 @@
         <v>609</v>
       </c>
       <c r="F204" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8266,7 +8290,7 @@
         <v>587</v>
       </c>
       <c r="F205" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8286,7 +8310,7 @@
         <v>610</v>
       </c>
       <c r="F206" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8306,7 +8330,7 @@
         <v>601</v>
       </c>
       <c r="F207" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8326,7 +8350,7 @@
         <v>664</v>
       </c>
       <c r="F208" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8346,7 +8370,7 @@
         <v>665</v>
       </c>
       <c r="F209" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8366,7 +8390,7 @@
         <v>666</v>
       </c>
       <c r="F210" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8383,10 +8407,10 @@
         <v>596</v>
       </c>
       <c r="E211" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="F211" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -8403,10 +8427,10 @@
         <v>609</v>
       </c>
       <c r="E212" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F212" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8423,10 +8447,10 @@
         <v>611</v>
       </c>
       <c r="E213" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F213" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -8446,7 +8470,7 @@
         <v>605</v>
       </c>
       <c r="F214" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -8463,10 +8487,10 @@
         <v>595</v>
       </c>
       <c r="E215" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="F215" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8486,7 +8510,7 @@
         <v>597</v>
       </c>
       <c r="F216" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -8506,7 +8530,7 @@
         <v>610</v>
       </c>
       <c r="F217" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -8526,7 +8550,7 @@
         <v>610</v>
       </c>
       <c r="F218" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -8543,10 +8567,10 @@
         <v>596</v>
       </c>
       <c r="E219" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="F219" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8566,7 +8590,7 @@
         <v>595</v>
       </c>
       <c r="F220" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -8583,10 +8607,10 @@
         <v>610</v>
       </c>
       <c r="E221" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="F221" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -8606,7 +8630,7 @@
         <v>595</v>
       </c>
       <c r="F222" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -8626,7 +8650,7 @@
         <v>597</v>
       </c>
       <c r="F223" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -8646,7 +8670,7 @@
         <v>605</v>
       </c>
       <c r="F224" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8666,7 +8690,7 @@
         <v>669</v>
       </c>
       <c r="F225" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8686,7 +8710,7 @@
         <v>595</v>
       </c>
       <c r="F226" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8706,7 +8730,7 @@
         <v>598</v>
       </c>
       <c r="F227" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8726,7 +8750,7 @@
         <v>604</v>
       </c>
       <c r="F228" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8743,10 +8767,10 @@
         <v>597</v>
       </c>
       <c r="E229" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="F229" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8766,7 +8790,7 @@
         <v>670</v>
       </c>
       <c r="F230" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -8786,7 +8810,7 @@
         <v>617</v>
       </c>
       <c r="F231" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -8803,10 +8827,10 @@
         <v>597</v>
       </c>
       <c r="E232" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="F232" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8826,7 +8850,7 @@
         <v>671</v>
       </c>
       <c r="F233" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8843,10 +8867,10 @@
         <v>595</v>
       </c>
       <c r="E234" t="s">
-        <v>618</v>
+        <v>672</v>
       </c>
       <c r="F234" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8863,10 +8887,10 @@
         <v>597</v>
       </c>
       <c r="E235" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F235" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8886,7 +8910,7 @@
         <v>595</v>
       </c>
       <c r="F236" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8903,10 +8927,10 @@
         <v>596</v>
       </c>
       <c r="E237" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F237" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8923,10 +8947,10 @@
         <v>610</v>
       </c>
       <c r="E238" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="F238" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8943,10 +8967,10 @@
         <v>595</v>
       </c>
       <c r="E239" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F239" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8963,10 +8987,10 @@
         <v>596</v>
       </c>
       <c r="E240" t="s">
-        <v>602</v>
+        <v>658</v>
       </c>
       <c r="F240" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8983,10 +9007,10 @@
         <v>610</v>
       </c>
       <c r="E241" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F241" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -9003,10 +9027,10 @@
         <v>610</v>
       </c>
       <c r="E242" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="F242" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -9026,7 +9050,7 @@
         <v>601</v>
       </c>
       <c r="F243" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -9043,10 +9067,10 @@
         <v>596</v>
       </c>
       <c r="E244" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="F244" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -9063,10 +9087,10 @@
         <v>595</v>
       </c>
       <c r="E245" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F245" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -9083,10 +9107,10 @@
         <v>610</v>
       </c>
       <c r="E246" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F246" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -9103,10 +9127,10 @@
         <v>605</v>
       </c>
       <c r="E247" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="F247" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -9123,10 +9147,10 @@
         <v>589</v>
       </c>
       <c r="E248" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F248" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -9146,7 +9170,7 @@
         <v>597</v>
       </c>
       <c r="F249" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -9163,10 +9187,10 @@
         <v>597</v>
       </c>
       <c r="E250" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F250" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -9183,10 +9207,10 @@
         <v>601</v>
       </c>
       <c r="E251" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F251" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -9203,10 +9227,10 @@
         <v>596</v>
       </c>
       <c r="E252" t="s">
-        <v>681</v>
+        <v>604</v>
       </c>
       <c r="F252" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -9226,7 +9250,7 @@
         <v>682</v>
       </c>
       <c r="F253" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -9243,10 +9267,10 @@
         <v>613</v>
       </c>
       <c r="E254" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="F254" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -9266,7 +9290,7 @@
         <v>595</v>
       </c>
       <c r="F255" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -9283,10 +9307,10 @@
         <v>597</v>
       </c>
       <c r="E256" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F256" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -9303,10 +9327,10 @@
         <v>605</v>
       </c>
       <c r="E257" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F257" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -9323,10 +9347,10 @@
         <v>597</v>
       </c>
       <c r="E258" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F258" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -9346,7 +9370,7 @@
         <v>594</v>
       </c>
       <c r="F259" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -9366,7 +9390,7 @@
         <v>597</v>
       </c>
       <c r="F260" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -9386,7 +9410,7 @@
         <v>596</v>
       </c>
       <c r="F261" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -9403,10 +9427,10 @@
         <v>589</v>
       </c>
       <c r="E262" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="F262" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -9426,7 +9450,7 @@
         <v>589</v>
       </c>
       <c r="F263" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -9443,10 +9467,10 @@
         <v>589</v>
       </c>
       <c r="E264" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="F264" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -9466,7 +9490,7 @@
         <v>597</v>
       </c>
       <c r="F265" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -9486,7 +9510,7 @@
         <v>605</v>
       </c>
       <c r="F266" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -9506,7 +9530,7 @@
         <v>597</v>
       </c>
       <c r="F267" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -9526,7 +9550,7 @@
         <v>597</v>
       </c>
       <c r="F268" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -9543,10 +9567,10 @@
         <v>588</v>
       </c>
       <c r="E269" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F269" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -9566,7 +9590,7 @@
         <v>597</v>
       </c>
       <c r="F270" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -9583,10 +9607,10 @@
         <v>585</v>
       </c>
       <c r="E271" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F271" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -9603,10 +9627,10 @@
         <v>601</v>
       </c>
       <c r="E272" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F272" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -9623,10 +9647,10 @@
         <v>611</v>
       </c>
       <c r="E273" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="F273" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -9643,10 +9667,10 @@
         <v>614</v>
       </c>
       <c r="E274" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F274" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -9666,7 +9690,7 @@
         <v>605</v>
       </c>
       <c r="F275" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -9683,10 +9707,10 @@
         <v>596</v>
       </c>
       <c r="E276" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F276" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -9706,7 +9730,7 @@
         <v>604</v>
       </c>
       <c r="F277" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -9726,7 +9750,7 @@
         <v>615</v>
       </c>
       <c r="F278" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -9746,7 +9770,7 @@
         <v>618</v>
       </c>
       <c r="F279" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -9763,10 +9787,10 @@
         <v>616</v>
       </c>
       <c r="E280" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F280" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -9783,10 +9807,10 @@
         <v>617</v>
       </c>
       <c r="E281" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F281" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -9803,10 +9827,10 @@
         <v>608</v>
       </c>
       <c r="E282" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F282" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -9823,10 +9847,10 @@
         <v>597</v>
       </c>
       <c r="E283" t="s">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="F283" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -9846,7 +9870,7 @@
         <v>605</v>
       </c>
       <c r="F284" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -9863,10 +9887,10 @@
         <v>618</v>
       </c>
       <c r="E285" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="F285" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -9883,10 +9907,10 @@
         <v>589</v>
       </c>
       <c r="E286" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F286" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -9906,7 +9930,7 @@
         <v>597</v>
       </c>
       <c r="F287" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -9926,7 +9950,7 @@
         <v>605</v>
       </c>
       <c r="F288" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -9946,7 +9970,7 @@
         <v>611</v>
       </c>
       <c r="F289" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -9966,7 +9990,7 @@
         <v>597</v>
       </c>
       <c r="F290" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -9983,10 +10007,10 @@
         <v>596</v>
       </c>
       <c r="E291" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="F291" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -10006,7 +10030,7 @@
         <v>599</v>
       </c>
       <c r="F292" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -10023,10 +10047,10 @@
         <v>601</v>
       </c>
       <c r="E293" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F293" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -10046,7 +10070,7 @@
         <v>596</v>
       </c>
       <c r="F294" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -10066,7 +10090,7 @@
         <v>589</v>
       </c>
       <c r="F295" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -10086,7 +10110,7 @@
         <v>597</v>
       </c>
       <c r="F296" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -10106,7 +10130,7 @@
         <v>589</v>
       </c>
       <c r="F297" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -10126,7 +10150,7 @@
         <v>609</v>
       </c>
       <c r="F298" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -10146,7 +10170,7 @@
         <v>610</v>
       </c>
       <c r="F299" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -10163,10 +10187,10 @@
         <v>619</v>
       </c>
       <c r="E300" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F300" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -10183,10 +10207,10 @@
         <v>589</v>
       </c>
       <c r="E301" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="F301" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -10203,10 +10227,10 @@
         <v>589</v>
       </c>
       <c r="E302" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F302" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -10223,10 +10247,10 @@
         <v>595</v>
       </c>
       <c r="E303" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="F303" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -10246,7 +10270,7 @@
         <v>602</v>
       </c>
       <c r="F304" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -10266,7 +10290,7 @@
         <v>597</v>
       </c>
       <c r="F305" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -10283,10 +10307,10 @@
         <v>597</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="F306" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -10306,7 +10330,7 @@
         <v>598</v>
       </c>
       <c r="F307" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -10326,7 +10350,7 @@
         <v>605</v>
       </c>
       <c r="F308" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -10343,10 +10367,10 @@
         <v>597</v>
       </c>
       <c r="E309" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F309" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -10366,7 +10390,7 @@
         <v>611</v>
       </c>
       <c r="F310" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -10383,10 +10407,10 @@
         <v>620</v>
       </c>
       <c r="E311" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="F311" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -10403,10 +10427,10 @@
         <v>597</v>
       </c>
       <c r="E312" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="F312" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -10426,7 +10450,7 @@
         <v>600</v>
       </c>
       <c r="F313" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -10443,10 +10467,10 @@
         <v>618</v>
       </c>
       <c r="E314" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F314" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -10463,10 +10487,10 @@
         <v>608</v>
       </c>
       <c r="E315" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="F315" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -10483,10 +10507,10 @@
         <v>621</v>
       </c>
       <c r="E316" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="F316" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -10506,7 +10530,7 @@
         <v>618</v>
       </c>
       <c r="F317" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -10523,10 +10547,10 @@
         <v>596</v>
       </c>
       <c r="E318" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="F318" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -10546,7 +10570,7 @@
         <v>596</v>
       </c>
       <c r="F319" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -10566,7 +10590,7 @@
         <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -10586,7 +10610,7 @@
         <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -10603,10 +10627,10 @@
         <v>598</v>
       </c>
       <c r="E322" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F322" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -10623,10 +10647,10 @@
         <v>597</v>
       </c>
       <c r="E323" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F323" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -10646,7 +10670,7 @@
         <v>602</v>
       </c>
       <c r="F324" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -10663,10 +10687,10 @@
         <v>622</v>
       </c>
       <c r="E325" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="F325" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -10686,7 +10710,7 @@
         <v>596</v>
       </c>
       <c r="F326" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -10706,7 +10730,7 @@
         <v>596</v>
       </c>
       <c r="F327" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -10726,7 +10750,7 @@
         <v>610</v>
       </c>
       <c r="F328" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -10743,10 +10767,10 @@
         <v>589</v>
       </c>
       <c r="E329" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F329" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -10766,7 +10790,7 @@
         <v>597</v>
       </c>
       <c r="F330" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -10783,10 +10807,10 @@
         <v>597</v>
       </c>
       <c r="E331" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F331" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -10806,7 +10830,7 @@
         <v>599</v>
       </c>
       <c r="F332" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -10826,7 +10850,7 @@
         <v>608</v>
       </c>
       <c r="F333" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -10846,7 +10870,7 @@
         <v>600</v>
       </c>
       <c r="F334" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -10863,10 +10887,10 @@
         <v>589</v>
       </c>
       <c r="E335" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F335" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -10886,7 +10910,7 @@
         <v>598</v>
       </c>
       <c r="F336" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -10903,10 +10927,10 @@
         <v>597</v>
       </c>
       <c r="E337" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F337" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -10926,7 +10950,7 @@
         <v>595</v>
       </c>
       <c r="F338" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -10946,7 +10970,7 @@
         <v>597</v>
       </c>
       <c r="F339" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -10966,7 +10990,7 @@
         <v>595</v>
       </c>
       <c r="F340" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -10983,10 +11007,10 @@
         <v>623</v>
       </c>
       <c r="E341" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="F341" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -11003,10 +11027,10 @@
         <v>597</v>
       </c>
       <c r="E342" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F342" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -11026,7 +11050,7 @@
         <v>605</v>
       </c>
       <c r="F343" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -11046,7 +11070,7 @@
         <v>604</v>
       </c>
       <c r="F344" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -11066,7 +11090,7 @@
         <v>597</v>
       </c>
       <c r="F345" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -11086,7 +11110,7 @@
         <v>597</v>
       </c>
       <c r="F346" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -11106,7 +11130,7 @@
         <v>611</v>
       </c>
       <c r="F347" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -11123,10 +11147,10 @@
         <v>608</v>
       </c>
       <c r="E348" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F348" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -11143,10 +11167,10 @@
         <v>597</v>
       </c>
       <c r="E349" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="F349" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -11163,10 +11187,10 @@
         <v>589</v>
       </c>
       <c r="E350" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="F350" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -11183,10 +11207,10 @@
         <v>597</v>
       </c>
       <c r="E351" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="F351" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -11206,7 +11230,7 @@
         <v>589</v>
       </c>
       <c r="F352" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -11223,10 +11247,10 @@
         <v>598</v>
       </c>
       <c r="E353" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F353" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -11246,7 +11270,7 @@
         <v>584</v>
       </c>
       <c r="F354" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -11266,7 +11290,7 @@
         <v>597</v>
       </c>
       <c r="F355" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -11286,7 +11310,7 @@
         <v>601</v>
       </c>
       <c r="F356" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -11303,10 +11327,10 @@
         <v>604</v>
       </c>
       <c r="E357" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F357" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -11323,10 +11347,10 @@
         <v>596</v>
       </c>
       <c r="E358" t="s">
-        <v>659</v>
+        <v>602</v>
       </c>
       <c r="F358" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -11343,10 +11367,10 @@
         <v>624</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F359" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -11363,10 +11387,10 @@
         <v>601</v>
       </c>
       <c r="E360" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F360" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -11386,7 +11410,7 @@
         <v>597</v>
       </c>
       <c r="F361" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -11406,7 +11430,7 @@
         <v>595</v>
       </c>
       <c r="F362" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -11423,10 +11447,10 @@
         <v>597</v>
       </c>
       <c r="E363" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F363" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -11446,7 +11470,7 @@
         <v>595</v>
       </c>
       <c r="F364" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -11463,10 +11487,10 @@
         <v>595</v>
       </c>
       <c r="E365" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F365" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -11486,7 +11510,7 @@
         <v>597</v>
       </c>
       <c r="F366" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -11506,7 +11530,7 @@
         <v>595</v>
       </c>
       <c r="F367" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -11523,10 +11547,10 @@
         <v>618</v>
       </c>
       <c r="E368" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="F368" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -11546,7 +11570,7 @@
         <v>596</v>
       </c>
       <c r="F369" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -11566,7 +11590,7 @@
         <v>605</v>
       </c>
       <c r="F370" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -11586,7 +11610,7 @@
         <v>611</v>
       </c>
       <c r="F371" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -11606,7 +11630,7 @@
         <v>597</v>
       </c>
       <c r="F372" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -11626,7 +11650,7 @@
         <v>597</v>
       </c>
       <c r="F373" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -11646,7 +11670,7 @@
         <v>610</v>
       </c>
       <c r="F374" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -11666,7 +11690,7 @@
         <v>596</v>
       </c>
       <c r="F375" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -11686,7 +11710,7 @@
         <v>597</v>
       </c>
       <c r="F376" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -11706,7 +11730,7 @@
         <v>605</v>
       </c>
       <c r="F377" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -11723,10 +11747,10 @@
         <v>597</v>
       </c>
       <c r="E378" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F378" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -11746,7 +11770,7 @@
         <v>604</v>
       </c>
       <c r="F379" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -11763,10 +11787,10 @@
         <v>596</v>
       </c>
       <c r="E380" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="F380" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -11786,7 +11810,7 @@
         <v>589</v>
       </c>
       <c r="F381" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -11806,7 +11830,7 @@
         <v>594</v>
       </c>
       <c r="F382" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -11826,7 +11850,7 @@
         <v>585</v>
       </c>
       <c r="F383" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -11843,10 +11867,10 @@
         <v>597</v>
       </c>
       <c r="E384" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="F384" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -11863,10 +11887,10 @@
         <v>608</v>
       </c>
       <c r="E385" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="F385" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -11886,7 +11910,7 @@
         <v>595</v>
       </c>
       <c r="F386" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -11906,7 +11930,7 @@
         <v>617</v>
       </c>
       <c r="F387" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -11923,10 +11947,10 @@
         <v>597</v>
       </c>
       <c r="E388" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="F388" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -11943,10 +11967,10 @@
         <v>596</v>
       </c>
       <c r="E389" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F389" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -11966,7 +11990,7 @@
         <v>612</v>
       </c>
       <c r="F390" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -11983,10 +12007,10 @@
         <v>589</v>
       </c>
       <c r="E391" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="F391" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -12003,10 +12027,10 @@
         <v>585</v>
       </c>
       <c r="E392" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F392" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -12026,7 +12050,7 @@
         <v>600</v>
       </c>
       <c r="F393" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -12043,10 +12067,10 @@
         <v>611</v>
       </c>
       <c r="E394" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="F394" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -12066,7 +12090,7 @@
         <v>605</v>
       </c>
       <c r="F395" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -12086,7 +12110,7 @@
         <v>597</v>
       </c>
       <c r="F396" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -12106,7 +12130,7 @@
         <v>597</v>
       </c>
       <c r="F397" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -12123,10 +12147,10 @@
         <v>595</v>
       </c>
       <c r="E398" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F398" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -12146,7 +12170,7 @@
         <v>596</v>
       </c>
       <c r="F399" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -12166,7 +12190,7 @@
         <v>602</v>
       </c>
       <c r="F400" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -12183,10 +12207,10 @@
         <v>599</v>
       </c>
       <c r="E401" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F401" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -12206,7 +12230,7 @@
         <v>585</v>
       </c>
       <c r="F402" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -12226,7 +12250,7 @@
         <v>588</v>
       </c>
       <c r="F403" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -12243,10 +12267,10 @@
         <v>612</v>
       </c>
       <c r="E404" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F404" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -12266,7 +12290,7 @@
         <v>594</v>
       </c>
       <c r="F405" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -12286,7 +12310,7 @@
         <v>630</v>
       </c>
       <c r="F406" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -12303,10 +12327,10 @@
         <v>604</v>
       </c>
       <c r="E407" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="F407" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -12323,10 +12347,10 @@
         <v>594</v>
       </c>
       <c r="E408" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F408" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -12346,7 +12370,7 @@
         <v>630</v>
       </c>
       <c r="F409" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -12363,10 +12387,10 @@
         <v>588</v>
       </c>
       <c r="E410" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="F410" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -12383,10 +12407,10 @@
         <v>597</v>
       </c>
       <c r="E411" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F411" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -12406,7 +12430,7 @@
         <v>597</v>
       </c>
       <c r="F412" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -12423,10 +12447,10 @@
         <v>589</v>
       </c>
       <c r="E413" t="s">
-        <v>721</v>
+        <v>625</v>
       </c>
       <c r="F413" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -12443,10 +12467,10 @@
         <v>625</v>
       </c>
       <c r="E414" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F414" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -12463,10 +12487,10 @@
         <v>595</v>
       </c>
       <c r="E415" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="F415" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -12483,10 +12507,10 @@
         <v>595</v>
       </c>
       <c r="E416" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="F416" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -12503,10 +12527,10 @@
         <v>595</v>
       </c>
       <c r="E417" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F417" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -12523,10 +12547,10 @@
         <v>595</v>
       </c>
       <c r="E418" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F418" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -12546,7 +12570,7 @@
         <v>597</v>
       </c>
       <c r="F419" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -12566,7 +12590,7 @@
         <v>605</v>
       </c>
       <c r="F420" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -12586,7 +12610,7 @@
         <v>589</v>
       </c>
       <c r="F421" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -12603,10 +12627,10 @@
         <v>609</v>
       </c>
       <c r="E422" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="F422" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -12623,10 +12647,10 @@
         <v>597</v>
       </c>
       <c r="E423" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="F423" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -12643,10 +12667,10 @@
         <v>595</v>
       </c>
       <c r="E424" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F424" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -12666,7 +12690,7 @@
         <v>626</v>
       </c>
       <c r="F425" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -12683,10 +12707,10 @@
         <v>619</v>
       </c>
       <c r="E426" t="s">
-        <v>727</v>
+        <v>654</v>
       </c>
       <c r="F426" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -12706,7 +12730,7 @@
         <v>597</v>
       </c>
       <c r="F427" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -12723,10 +12747,10 @@
         <v>589</v>
       </c>
       <c r="E428" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
       <c r="F428" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -12746,7 +12770,7 @@
         <v>599</v>
       </c>
       <c r="F429" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -12763,10 +12787,10 @@
         <v>601</v>
       </c>
       <c r="E430" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="F430" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -12783,10 +12807,10 @@
         <v>595</v>
       </c>
       <c r="E431" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="F431" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -12806,7 +12830,7 @@
         <v>671</v>
       </c>
       <c r="F432" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -12826,7 +12850,7 @@
         <v>607</v>
       </c>
       <c r="F433" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -12843,10 +12867,10 @@
         <v>595</v>
       </c>
       <c r="E434" t="s">
-        <v>651</v>
+        <v>603</v>
       </c>
       <c r="F434" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -12866,7 +12890,7 @@
         <v>605</v>
       </c>
       <c r="F435" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -12886,7 +12910,7 @@
         <v>610</v>
       </c>
       <c r="F436" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -12906,7 +12930,7 @@
         <v>597</v>
       </c>
       <c r="F437" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -12926,7 +12950,7 @@
         <v>589</v>
       </c>
       <c r="F438" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -12943,10 +12967,10 @@
         <v>595</v>
       </c>
       <c r="E439" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="F439" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -12963,10 +12987,10 @@
         <v>597</v>
       </c>
       <c r="E440" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F440" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -12986,7 +13010,7 @@
         <v>596</v>
       </c>
       <c r="F441" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -13006,7 +13030,7 @@
         <v>595</v>
       </c>
       <c r="F442" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -13023,10 +13047,10 @@
         <v>596</v>
       </c>
       <c r="E443" t="s">
-        <v>708</v>
+        <v>605</v>
       </c>
       <c r="F443" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -13046,7 +13070,7 @@
         <v>596</v>
       </c>
       <c r="F444" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -13063,10 +13087,10 @@
         <v>597</v>
       </c>
       <c r="E445" t="s">
-        <v>604</v>
+        <v>664</v>
       </c>
       <c r="F445" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -13083,10 +13107,10 @@
         <v>608</v>
       </c>
       <c r="E446" t="s">
-        <v>693</v>
+        <v>631</v>
       </c>
       <c r="F446" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -13103,10 +13127,10 @@
         <v>596</v>
       </c>
       <c r="E447" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="F447" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -13123,10 +13147,10 @@
         <v>597</v>
       </c>
       <c r="E448" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="F448" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -13143,10 +13167,10 @@
         <v>597</v>
       </c>
       <c r="E449" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F449" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -13163,10 +13187,10 @@
         <v>597</v>
       </c>
       <c r="E450" t="s">
-        <v>730</v>
+        <v>604</v>
       </c>
       <c r="F450" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -13186,7 +13210,7 @@
         <v>602</v>
       </c>
       <c r="F451" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -13203,10 +13227,10 @@
         <v>589</v>
       </c>
       <c r="E452" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F452" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -13226,7 +13250,7 @@
         <v>596</v>
       </c>
       <c r="F453" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -13246,7 +13270,7 @@
         <v>605</v>
       </c>
       <c r="F454" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -13266,7 +13290,7 @@
         <v>605</v>
       </c>
       <c r="F455" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -13286,7 +13310,7 @@
         <v>597</v>
       </c>
       <c r="F456" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -13306,7 +13330,7 @@
         <v>630</v>
       </c>
       <c r="F457" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -13323,10 +13347,10 @@
         <v>619</v>
       </c>
       <c r="E458" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F458" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -13343,10 +13367,10 @@
         <v>602</v>
       </c>
       <c r="E459" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="F459" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -13363,10 +13387,10 @@
         <v>595</v>
       </c>
       <c r="E460" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F460" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -13386,7 +13410,7 @@
         <v>598</v>
       </c>
       <c r="F461" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -13403,10 +13427,10 @@
         <v>627</v>
       </c>
       <c r="E462" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="F462" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -13426,7 +13450,7 @@
         <v>601</v>
       </c>
       <c r="F463" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -13446,7 +13470,7 @@
         <v>596</v>
       </c>
       <c r="F464" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -13466,7 +13490,7 @@
         <v>595</v>
       </c>
       <c r="F465" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -13483,10 +13507,10 @@
         <v>595</v>
       </c>
       <c r="E466" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F466" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -13503,10 +13527,10 @@
         <v>597</v>
       </c>
       <c r="E467" t="s">
-        <v>602</v>
+        <v>740</v>
       </c>
       <c r="F467" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -13526,7 +13550,7 @@
         <v>605</v>
       </c>
       <c r="F468" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -13543,10 +13567,10 @@
         <v>597</v>
       </c>
       <c r="E469" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F469" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -13566,7 +13590,7 @@
         <v>598</v>
       </c>
       <c r="F470" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -13583,10 +13607,10 @@
         <v>605</v>
       </c>
       <c r="E471" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="F471" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -13606,7 +13630,7 @@
         <v>601</v>
       </c>
       <c r="F472" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -13626,7 +13650,7 @@
         <v>608</v>
       </c>
       <c r="F473" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -13646,7 +13670,7 @@
         <v>607</v>
       </c>
       <c r="F474" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -13663,10 +13687,10 @@
         <v>597</v>
       </c>
       <c r="E475" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
       <c r="F475" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -13686,7 +13710,7 @@
         <v>597</v>
       </c>
       <c r="F476" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -13706,7 +13730,7 @@
         <v>585</v>
       </c>
       <c r="F477" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -13726,7 +13750,7 @@
         <v>596</v>
       </c>
       <c r="F478" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -13743,10 +13767,10 @@
         <v>601</v>
       </c>
       <c r="E479" t="s">
-        <v>620</v>
+        <v>741</v>
       </c>
       <c r="F479" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -13763,10 +13787,10 @@
         <v>601</v>
       </c>
       <c r="E480" t="s">
-        <v>736</v>
+        <v>646</v>
       </c>
       <c r="F480" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -13783,10 +13807,10 @@
         <v>596</v>
       </c>
       <c r="E481" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
       <c r="F481" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -13803,10 +13827,10 @@
         <v>626</v>
       </c>
       <c r="E482" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="F482" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -13823,10 +13847,10 @@
         <v>596</v>
       </c>
       <c r="E483" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F483" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -13843,10 +13867,10 @@
         <v>597</v>
       </c>
       <c r="E484" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="F484" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -13866,7 +13890,7 @@
         <v>601</v>
       </c>
       <c r="F485" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -13883,10 +13907,10 @@
         <v>615</v>
       </c>
       <c r="E486" t="s">
-        <v>693</v>
+        <v>638</v>
       </c>
       <c r="F486" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -13903,10 +13927,10 @@
         <v>597</v>
       </c>
       <c r="E487" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
       <c r="F487" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -13926,7 +13950,7 @@
         <v>597</v>
       </c>
       <c r="F488" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -13943,10 +13967,10 @@
         <v>592</v>
       </c>
       <c r="E489" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F489" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -13966,7 +13990,7 @@
         <v>609</v>
       </c>
       <c r="F490" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -13986,7 +14010,7 @@
         <v>597</v>
       </c>
       <c r="F491" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -14003,10 +14027,10 @@
         <v>597</v>
       </c>
       <c r="E492" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="F492" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -14026,7 +14050,7 @@
         <v>608</v>
       </c>
       <c r="F493" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -14046,7 +14070,7 @@
         <v>618</v>
       </c>
       <c r="F494" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -14063,10 +14087,10 @@
         <v>596</v>
       </c>
       <c r="E495" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F495" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -14086,7 +14110,7 @@
         <v>596</v>
       </c>
       <c r="F496" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -14103,10 +14127,10 @@
         <v>609</v>
       </c>
       <c r="E497" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F497" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -14123,10 +14147,10 @@
         <v>597</v>
       </c>
       <c r="E498" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F498" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -14146,7 +14170,7 @@
         <v>595</v>
       </c>
       <c r="F499" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -14166,7 +14190,7 @@
         <v>604</v>
       </c>
       <c r="F500" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -14186,7 +14210,7 @@
         <v>596</v>
       </c>
       <c r="F501" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -14203,10 +14227,10 @@
         <v>593</v>
       </c>
       <c r="E502" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="F502" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -14226,7 +14250,7 @@
         <v>608</v>
       </c>
       <c r="F503" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -14246,7 +14270,7 @@
         <v>589</v>
       </c>
       <c r="F504" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -14266,7 +14290,7 @@
         <v>669</v>
       </c>
       <c r="F505" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -14286,7 +14310,7 @@
         <v>605</v>
       </c>
       <c r="F506" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -14306,7 +14330,7 @@
         <v>600</v>
       </c>
       <c r="F507" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -14323,10 +14347,10 @@
         <v>597</v>
       </c>
       <c r="E508" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F508" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -14346,7 +14370,7 @@
         <v>595</v>
       </c>
       <c r="F509" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -14366,7 +14390,7 @@
         <v>604</v>
       </c>
       <c r="F510" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -14386,7 +14410,7 @@
         <v>595</v>
       </c>
       <c r="F511" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -14403,10 +14427,10 @@
         <v>597</v>
       </c>
       <c r="E512" t="s">
-        <v>600</v>
+        <v>710</v>
       </c>
       <c r="F512" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -14423,10 +14447,10 @@
         <v>601</v>
       </c>
       <c r="E513" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="F513" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -14443,10 +14467,10 @@
         <v>596</v>
       </c>
       <c r="E514" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="F514" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -14466,7 +14490,7 @@
         <v>596</v>
       </c>
       <c r="F515" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -14486,7 +14510,7 @@
         <v>597</v>
       </c>
       <c r="F516" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -14506,7 +14530,7 @@
         <v>596</v>
       </c>
       <c r="F517" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -14526,7 +14550,7 @@
         <v>605</v>
       </c>
       <c r="F518" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -14546,7 +14570,7 @@
         <v>597</v>
       </c>
       <c r="F519" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -14566,7 +14590,7 @@
         <v>595</v>
       </c>
       <c r="F520" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -14586,7 +14610,7 @@
         <v>597</v>
       </c>
       <c r="F521" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -14603,10 +14627,10 @@
         <v>589</v>
       </c>
       <c r="E522" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F522" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -14626,7 +14650,7 @@
         <v>589</v>
       </c>
       <c r="F523" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -14643,10 +14667,10 @@
         <v>590</v>
       </c>
       <c r="E524" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="F524" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -14663,10 +14687,10 @@
         <v>596</v>
       </c>
       <c r="E525" t="s">
-        <v>660</v>
+        <v>617</v>
       </c>
       <c r="F525" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -14683,10 +14707,10 @@
         <v>589</v>
       </c>
       <c r="E526" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F526" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -14703,10 +14727,10 @@
         <v>618</v>
       </c>
       <c r="E527" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F527" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -14726,7 +14750,7 @@
         <v>585</v>
       </c>
       <c r="F528" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -14746,7 +14770,7 @@
         <v>601</v>
       </c>
       <c r="F529" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -14763,10 +14787,10 @@
         <v>596</v>
       </c>
       <c r="E530" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="F530" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -14786,7 +14810,7 @@
         <v>595</v>
       </c>
       <c r="F531" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -14803,10 +14827,10 @@
         <v>597</v>
       </c>
       <c r="E532" t="s">
-        <v>741</v>
+        <v>602</v>
       </c>
       <c r="F532" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -14826,7 +14850,7 @@
         <v>589</v>
       </c>
       <c r="F533" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -14846,7 +14870,7 @@
         <v>598</v>
       </c>
       <c r="F534" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -14866,7 +14890,7 @@
         <v>604</v>
       </c>
       <c r="F535" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -14883,10 +14907,10 @@
         <v>595</v>
       </c>
       <c r="E536" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F536" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -14903,10 +14927,10 @@
         <v>605</v>
       </c>
       <c r="E537" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="F537" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -14923,10 +14947,10 @@
         <v>589</v>
       </c>
       <c r="E538" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F538" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -14943,10 +14967,10 @@
         <v>629</v>
       </c>
       <c r="E539" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F539" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -14963,10 +14987,10 @@
         <v>589</v>
       </c>
       <c r="E540" t="s">
-        <v>745</v>
+        <v>683</v>
       </c>
       <c r="F540" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -14997,10 +15021,10 @@
         <v>589</v>
       </c>
       <c r="E542" t="s">
-        <v>648</v>
+        <v>749</v>
       </c>
       <c r="F542" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -15020,7 +15044,7 @@
         <v>599</v>
       </c>
       <c r="F543" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -15040,7 +15064,7 @@
         <v>608</v>
       </c>
       <c r="F544" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -15060,7 +15084,7 @@
         <v>597</v>
       </c>
       <c r="F545" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -15080,7 +15104,7 @@
         <v>589</v>
       </c>
       <c r="F546" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -15100,7 +15124,7 @@
         <v>597</v>
       </c>
       <c r="F547" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -15117,10 +15141,10 @@
         <v>597</v>
       </c>
       <c r="E548" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F548" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -15137,10 +15161,10 @@
         <v>599</v>
       </c>
       <c r="E549" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F549" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -15160,7 +15184,7 @@
         <v>597</v>
       </c>
       <c r="F550" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -15180,7 +15204,7 @@
         <v>605</v>
       </c>
       <c r="F551" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -15197,10 +15221,10 @@
         <v>608</v>
       </c>
       <c r="E552" t="s">
-        <v>693</v>
+        <v>638</v>
       </c>
       <c r="F552" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -15217,10 +15241,10 @@
         <v>596</v>
       </c>
       <c r="E553" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F553" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -15240,7 +15264,7 @@
         <v>597</v>
       </c>
       <c r="F554" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -15257,10 +15281,10 @@
         <v>595</v>
       </c>
       <c r="E555" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F555" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -15277,10 +15301,10 @@
         <v>595</v>
       </c>
       <c r="E556" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F556" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -15297,10 +15321,10 @@
         <v>597</v>
       </c>
       <c r="E557" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F557" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -15317,10 +15341,10 @@
         <v>624</v>
       </c>
       <c r="E558" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="F558" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -15340,7 +15364,7 @@
         <v>595</v>
       </c>
       <c r="F559" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -15357,10 +15381,10 @@
         <v>608</v>
       </c>
       <c r="E560" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F560" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -15377,10 +15401,10 @@
         <v>611</v>
       </c>
       <c r="E561" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F561" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -15397,10 +15421,10 @@
         <v>601</v>
       </c>
       <c r="E562" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="F562" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -15417,10 +15441,10 @@
         <v>585</v>
       </c>
       <c r="E563" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F563" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -15440,7 +15464,7 @@
         <v>609</v>
       </c>
       <c r="F564" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -15457,10 +15481,10 @@
         <v>611</v>
       </c>
       <c r="E565" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F565" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -15477,10 +15501,10 @@
         <v>597</v>
       </c>
       <c r="E566" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F566" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -15497,10 +15521,10 @@
         <v>596</v>
       </c>
       <c r="E567" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="F567" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -15517,10 +15541,10 @@
         <v>595</v>
       </c>
       <c r="E568" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="F568" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -15540,7 +15564,7 @@
         <v>597</v>
       </c>
       <c r="F569" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -15560,7 +15584,7 @@
         <v>605</v>
       </c>
       <c r="F570" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -15580,7 +15604,7 @@
         <v>604</v>
       </c>
       <c r="F571" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -15597,10 +15621,10 @@
         <v>595</v>
       </c>
       <c r="E572" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F572" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -15620,7 +15644,7 @@
         <v>600</v>
       </c>
       <c r="F573" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -15640,7 +15664,7 @@
         <v>602</v>
       </c>
       <c r="F574" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -15657,10 +15681,10 @@
         <v>597</v>
       </c>
       <c r="E575" t="s">
-        <v>660</v>
+        <v>710</v>
       </c>
       <c r="F575" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -15677,10 +15701,10 @@
         <v>595</v>
       </c>
       <c r="E576" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F576" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -15697,10 +15721,10 @@
         <v>630</v>
       </c>
       <c r="E577" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F577" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -15717,10 +15741,10 @@
         <v>604</v>
       </c>
       <c r="E578" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
       <c r="F578" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -15740,7 +15764,7 @@
         <v>605</v>
       </c>
       <c r="F579" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -15760,7 +15784,7 @@
         <v>613</v>
       </c>
       <c r="F580" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -15777,10 +15801,10 @@
         <v>589</v>
       </c>
       <c r="E581" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F581" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -15800,7 +15824,7 @@
         <v>631</v>
       </c>
       <c r="F582" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -15820,7 +15844,7 @@
         <v>605</v>
       </c>
       <c r="F583" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -15837,10 +15861,10 @@
         <v>601</v>
       </c>
       <c r="E584" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="F584" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -15857,10 +15881,10 @@
         <v>589</v>
       </c>
       <c r="E585" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="F585" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -15880,7 +15904,7 @@
         <v>595</v>
       </c>
       <c r="F586" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -15897,10 +15921,10 @@
         <v>597</v>
       </c>
       <c r="E587" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F587" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -15917,10 +15941,10 @@
         <v>596</v>
       </c>
       <c r="E588" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F588" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -15937,10 +15961,10 @@
         <v>596</v>
       </c>
       <c r="E589" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F589" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -15957,10 +15981,10 @@
         <v>596</v>
       </c>
       <c r="E590" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F590" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -15980,7 +16004,7 @@
         <v>595</v>
       </c>
       <c r="F591" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -15997,10 +16021,10 @@
         <v>610</v>
       </c>
       <c r="E592" t="s">
-        <v>665</v>
+        <v>759</v>
       </c>
       <c r="F592" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -16020,7 +16044,7 @@
         <v>607</v>
       </c>
       <c r="F593" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -16040,7 +16064,7 @@
         <v>608</v>
       </c>
       <c r="F594" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -16057,10 +16081,10 @@
         <v>632</v>
       </c>
       <c r="E595" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="F595" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -16080,7 +16104,7 @@
         <v>597</v>
       </c>
       <c r="F596" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -16100,7 +16124,7 @@
         <v>597</v>
       </c>
       <c r="F597" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -16117,10 +16141,10 @@
         <v>589</v>
       </c>
       <c r="E598" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="F598" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -16137,10 +16161,10 @@
         <v>588</v>
       </c>
       <c r="E599" t="s">
-        <v>755</v>
+        <v>664</v>
       </c>
       <c r="F599" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -16160,7 +16184,7 @@
         <v>633</v>
       </c>
       <c r="F600" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -16177,10 +16201,10 @@
         <v>597</v>
       </c>
       <c r="E601" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="F601" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -16197,10 +16221,10 @@
         <v>595</v>
       </c>
       <c r="E602" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="F602" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -16220,7 +16244,7 @@
         <v>597</v>
       </c>
       <c r="F603" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -16240,7 +16264,7 @@
         <v>596</v>
       </c>
       <c r="F604" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -16260,7 +16284,7 @@
         <v>597</v>
       </c>
       <c r="F605" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -16277,10 +16301,10 @@
         <v>597</v>
       </c>
       <c r="E606" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="F606" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -16297,10 +16321,10 @@
         <v>599</v>
       </c>
       <c r="E607" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F607" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -16320,7 +16344,7 @@
         <v>597</v>
       </c>
       <c r="F608" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -16337,10 +16361,10 @@
         <v>595</v>
       </c>
       <c r="E609" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="F609" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -16360,7 +16384,7 @@
         <v>597</v>
       </c>
       <c r="F610" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -16380,7 +16404,7 @@
         <v>589</v>
       </c>
       <c r="F611" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -16400,7 +16424,7 @@
         <v>610</v>
       </c>
       <c r="F612" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -16420,7 +16444,7 @@
         <v>597</v>
       </c>
       <c r="F613" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -16437,10 +16461,10 @@
         <v>604</v>
       </c>
       <c r="E614" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="F614" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -16460,7 +16484,7 @@
         <v>621</v>
       </c>
       <c r="F615" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -16480,7 +16504,7 @@
         <v>605</v>
       </c>
       <c r="F616" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -16497,10 +16521,10 @@
         <v>634</v>
       </c>
       <c r="E617" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="F617" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -16517,10 +16541,10 @@
         <v>595</v>
       </c>
       <c r="E618" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="F618" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -16537,10 +16561,10 @@
         <v>597</v>
       </c>
       <c r="E619" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="F619" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -16557,10 +16581,10 @@
         <v>597</v>
       </c>
       <c r="E620" t="s">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="F620" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -16577,10 +16601,10 @@
         <v>604</v>
       </c>
       <c r="E621" t="s">
-        <v>683</v>
+        <v>612</v>
       </c>
       <c r="F621" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -16600,7 +16624,7 @@
         <v>600</v>
       </c>
       <c r="F622" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -16620,7 +16644,7 @@
         <v>597</v>
       </c>
       <c r="F623" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -16637,10 +16661,10 @@
         <v>597</v>
       </c>
       <c r="E624" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="F624" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -16657,10 +16681,10 @@
         <v>593</v>
       </c>
       <c r="E625" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F625" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -16677,10 +16701,10 @@
         <v>596</v>
       </c>
       <c r="E626" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F626" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -16700,7 +16724,7 @@
         <v>605</v>
       </c>
       <c r="F627" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -16720,7 +16744,7 @@
         <v>599</v>
       </c>
       <c r="F628" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -16740,7 +16764,7 @@
         <v>608</v>
       </c>
       <c r="F629" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -16757,10 +16781,10 @@
         <v>599</v>
       </c>
       <c r="E630" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="F630" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -16777,10 +16801,10 @@
         <v>589</v>
       </c>
       <c r="E631" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F631" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -16814,7 +16838,7 @@
         <v>605</v>
       </c>
       <c r="F633" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -16834,7 +16858,7 @@
         <v>595</v>
       </c>
       <c r="F634" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -16854,7 +16878,7 @@
         <v>608</v>
       </c>
       <c r="F635" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -16871,10 +16895,10 @@
         <v>597</v>
       </c>
       <c r="E636" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
       <c r="F636" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -16894,7 +16918,7 @@
         <v>589</v>
       </c>
       <c r="F637" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -16911,10 +16935,10 @@
         <v>596</v>
       </c>
       <c r="E638" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F638" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -16934,7 +16958,7 @@
         <v>596</v>
       </c>
       <c r="F639" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -16954,7 +16978,7 @@
         <v>599</v>
       </c>
       <c r="F640" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -16974,7 +16998,7 @@
         <v>601</v>
       </c>
       <c r="F641" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -16994,7 +17018,7 @@
         <v>585</v>
       </c>
       <c r="F642" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -17011,10 +17035,10 @@
         <v>597</v>
       </c>
       <c r="E643" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F643" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -17031,10 +17055,10 @@
         <v>597</v>
       </c>
       <c r="E644" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="F644" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -17054,7 +17078,7 @@
         <v>597</v>
       </c>
       <c r="F645" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -17074,7 +17098,7 @@
         <v>627</v>
       </c>
       <c r="F646" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -17091,10 +17115,10 @@
         <v>585</v>
       </c>
       <c r="E647" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="F647" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -17111,10 +17135,10 @@
         <v>626</v>
       </c>
       <c r="E648" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="F648" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -17134,7 +17158,7 @@
         <v>589</v>
       </c>
       <c r="F649" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -17154,7 +17178,7 @@
         <v>601</v>
       </c>
       <c r="F650" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -17174,7 +17198,7 @@
         <v>589</v>
       </c>
       <c r="F651" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -17191,10 +17215,10 @@
         <v>597</v>
       </c>
       <c r="E652" t="s">
-        <v>685</v>
+        <v>605</v>
       </c>
       <c r="F652" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -17211,10 +17235,10 @@
         <v>595</v>
       </c>
       <c r="E653" t="s">
-        <v>763</v>
+        <v>612</v>
       </c>
       <c r="F653" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -17231,10 +17255,10 @@
         <v>595</v>
       </c>
       <c r="E654" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="F654" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -17251,10 +17275,10 @@
         <v>635</v>
       </c>
       <c r="E655" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="F655" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -17271,10 +17295,10 @@
         <v>636</v>
       </c>
       <c r="E656" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="F656" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -17291,10 +17315,10 @@
         <v>595</v>
       </c>
       <c r="E657" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F657" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -17314,7 +17338,7 @@
         <v>618</v>
       </c>
       <c r="F658" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -17331,10 +17355,10 @@
         <v>595</v>
       </c>
       <c r="E659" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F659" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -17354,7 +17378,7 @@
         <v>595</v>
       </c>
       <c r="F660" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -17374,7 +17398,7 @@
         <v>593</v>
       </c>
       <c r="F661" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -17391,10 +17415,10 @@
         <v>608</v>
       </c>
       <c r="E662" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F662" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -17414,7 +17438,7 @@
         <v>610</v>
       </c>
       <c r="F663" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -17431,10 +17455,10 @@
         <v>599</v>
       </c>
       <c r="E664" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="F664" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -17454,7 +17478,7 @@
         <v>597</v>
       </c>
       <c r="F665" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -17474,7 +17498,7 @@
         <v>617</v>
       </c>
       <c r="F666" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -17491,10 +17515,10 @@
         <v>595</v>
       </c>
       <c r="E667" t="s">
-        <v>635</v>
+        <v>774</v>
       </c>
       <c r="F667" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -17511,10 +17535,10 @@
         <v>595</v>
       </c>
       <c r="E668" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F668" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -17531,10 +17555,10 @@
         <v>600</v>
       </c>
       <c r="E669" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F669" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -17554,7 +17578,7 @@
         <v>597</v>
       </c>
       <c r="F670" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -17571,10 +17595,10 @@
         <v>597</v>
       </c>
       <c r="E671" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="F671" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -17594,7 +17618,7 @@
         <v>604</v>
       </c>
       <c r="F672" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -17611,10 +17635,10 @@
         <v>637</v>
       </c>
       <c r="E673" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="F673" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -17631,10 +17655,10 @@
         <v>595</v>
       </c>
       <c r="E674" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="F674" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -17654,7 +17678,7 @@
         <v>589</v>
       </c>
       <c r="F675" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -17674,7 +17698,7 @@
         <v>608</v>
       </c>
       <c r="F676" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -17691,10 +17715,10 @@
         <v>618</v>
       </c>
       <c r="E677" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="F677" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -17711,10 +17735,10 @@
         <v>618</v>
       </c>
       <c r="E678" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="F678" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -17731,10 +17755,10 @@
         <v>638</v>
       </c>
       <c r="E679" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F679" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -17754,7 +17778,7 @@
         <v>597</v>
       </c>
       <c r="F680" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -17774,7 +17798,7 @@
         <v>617</v>
       </c>
       <c r="F681" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -17791,10 +17815,10 @@
         <v>589</v>
       </c>
       <c r="E682" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="F682" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -17814,7 +17838,7 @@
         <v>589</v>
       </c>
       <c r="F683" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -17831,10 +17855,10 @@
         <v>589</v>
       </c>
       <c r="E684" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="F684" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -17854,7 +17878,7 @@
         <v>610</v>
       </c>
       <c r="F685" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -17871,10 +17895,10 @@
         <v>589</v>
       </c>
       <c r="E686" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="F686" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -17891,10 +17915,10 @@
         <v>589</v>
       </c>
       <c r="E687" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="F687" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -17911,10 +17935,10 @@
         <v>589</v>
       </c>
       <c r="E688" t="s">
-        <v>677</v>
+        <v>783</v>
       </c>
       <c r="F688" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -17931,10 +17955,10 @@
         <v>589</v>
       </c>
       <c r="E689" t="s">
-        <v>677</v>
+        <v>784</v>
       </c>
       <c r="F689" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -17954,7 +17978,7 @@
         <v>589</v>
       </c>
       <c r="F690" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -17974,7 +17998,7 @@
         <v>600</v>
       </c>
       <c r="F691" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -17991,10 +18015,10 @@
         <v>589</v>
       </c>
       <c r="E692" t="s">
-        <v>677</v>
+        <v>785</v>
       </c>
       <c r="F692" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -18014,7 +18038,7 @@
         <v>610</v>
       </c>
       <c r="F693" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -18031,10 +18055,10 @@
         <v>589</v>
       </c>
       <c r="E694" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F694" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -18054,7 +18078,7 @@
         <v>589</v>
       </c>
       <c r="F695" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -18074,7 +18098,7 @@
         <v>589</v>
       </c>
       <c r="F696" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -18094,7 +18118,7 @@
         <v>589</v>
       </c>
       <c r="F697" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -18114,7 +18138,7 @@
         <v>610</v>
       </c>
       <c r="F698" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -18134,7 +18158,7 @@
         <v>600</v>
       </c>
       <c r="F699" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18154,7 +18178,7 @@
         <v>600</v>
       </c>
       <c r="F700" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
